--- a/results/cifar100/rehearsal_0.3_cifar100.xlsx
+++ b/results/cifar100/rehearsal_0.3_cifar100.xlsx
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.497435662598737</v>
+        <v>3.511840586113719</v>
       </c>
       <c r="D3">
-        <v>3.228624105453491</v>
+        <v>3.22520923614502</v>
       </c>
       <c r="E3">
-        <v>8.76</v>
+        <v>8.57</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.01603853297233581</v>
+        <v>0.01600805101394653</v>
       </c>
       <c r="J3">
-        <v>17.52</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.913678637648051</v>
+        <v>2.90660364859927</v>
       </c>
       <c r="D4">
-        <v>3.225048780441284</v>
+        <v>2.863078832626343</v>
       </c>
       <c r="E4">
-        <v>9.23</v>
+        <v>12.78</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.04703891143798828</v>
+        <v>0.04714803810119629</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.534884741875977</v>
+        <v>2.553093612721536</v>
       </c>
       <c r="D5">
-        <v>2.578027725219727</v>
+        <v>2.816082954406738</v>
       </c>
       <c r="E5">
-        <v>14.92</v>
+        <v>13.12</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.01612263331413269</v>
+        <v>0.01418107328414917</v>
       </c>
       <c r="J5">
-        <v>18.46</v>
+        <v>25.56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.249078014255625</v>
+        <v>2.274813263817171</v>
       </c>
       <c r="D6">
-        <v>2.423994779586792</v>
+        <v>2.419665336608887</v>
       </c>
       <c r="E6">
-        <v>17.4</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.05306448745727539</v>
+        <v>0.05106980209350586</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.031833326922054</v>
+        <v>2.042133015868938</v>
       </c>
       <c r="D7">
-        <v>2.257857084274292</v>
+        <v>2.20387077331543</v>
       </c>
       <c r="E7">
-        <v>19.25</v>
+        <v>19.58</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.01290810551643372</v>
+        <v>0.01414006299972534</v>
       </c>
       <c r="J7">
-        <v>29.84</v>
+        <v>26.24</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.871898503430122</v>
+        <v>1.870710199913092</v>
       </c>
       <c r="D8">
-        <v>2.2654128074646</v>
+        <v>2.336401224136353</v>
       </c>
       <c r="E8">
-        <v>19.09</v>
+        <v>18.49</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.05588128242492676</v>
+        <v>0.05992588138580322</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.719077654644451</v>
+        <v>1.708738010541528</v>
       </c>
       <c r="D9">
-        <v>2.103428840637207</v>
+        <v>2.035254240036011</v>
       </c>
       <c r="E9">
-        <v>20.82</v>
+        <v>20.99</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.0119820219039917</v>
+        <v>0.01176486234664917</v>
       </c>
       <c r="J9">
-        <v>34.8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.578606547507565</v>
+        <v>1.594804027439219</v>
       </c>
       <c r="D10">
-        <v>2.135715484619141</v>
+        <v>2.056309461593628</v>
       </c>
       <c r="E10">
-        <v>20.85</v>
+        <v>21.81</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.06134282474517822</v>
+        <v>0.05937254028320312</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.460951240716782</v>
+        <v>1.45957167380679</v>
       </c>
       <c r="D11">
-        <v>2.217144012451172</v>
+        <v>2.078118085861206</v>
       </c>
       <c r="E11">
-        <v>20.86</v>
+        <v>21.71</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.01110827488899231</v>
+        <v>0.01083594810962677</v>
       </c>
       <c r="J11">
-        <v>38.5</v>
+        <v>39.16</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.368206435600213</v>
+        <v>1.34597950910045</v>
       </c>
       <c r="D12">
-        <v>2.061534881591797</v>
+        <v>1.904910087585449</v>
       </c>
       <c r="E12">
-        <v>22.89</v>
+        <v>23.25</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.06241815547943115</v>
+        <v>0.06139906597137451</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.251487020897654</v>
+        <v>1.255205923477105</v>
       </c>
       <c r="D13">
-        <v>1.973587274551392</v>
+        <v>2.19180154800415</v>
       </c>
       <c r="E13">
-        <v>23.46</v>
+        <v>21.98</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.01133031430244446</v>
+        <v>0.01150240955352783</v>
       </c>
       <c r="J13">
-        <v>38.18</v>
+        <v>36.98</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.162242457402491</v>
+        <v>1.152580204790672</v>
       </c>
       <c r="D14">
-        <v>2.034270763397217</v>
+        <v>2.190108299255371</v>
       </c>
       <c r="E14">
-        <v>23.05</v>
+        <v>21.51</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.06567323818206787</v>
+        <v>0.06536623878479005</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.065230760954123</v>
+        <v>1.058904725893409</v>
       </c>
       <c r="D15">
-        <v>2.027369976043701</v>
+        <v>1.905351877212524</v>
       </c>
       <c r="E15">
-        <v>24.21</v>
+        <v>24.48</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.01048428380489349</v>
+        <v>0.01018476946353912</v>
       </c>
       <c r="J15">
-        <v>41.64</v>
+        <v>41.98</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9882741391131308</v>
+        <v>0.9666195775555299</v>
       </c>
       <c r="D16">
-        <v>2.449402570724487</v>
+        <v>2.404524564743042</v>
       </c>
       <c r="E16">
-        <v>20.94</v>
+        <v>19.73</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.06418620033264161</v>
+        <v>0.06317390842437744</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8984397433500374</v>
+        <v>0.8828632894870454</v>
       </c>
       <c r="D17">
-        <v>2.144100666046143</v>
+        <v>1.991776585578918</v>
       </c>
       <c r="E17">
-        <v>23.48</v>
+        <v>24.22</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.01060812349319458</v>
+        <v>0.01019660031795502</v>
       </c>
       <c r="J17">
-        <v>41.7</v>
+        <v>43.62</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8288654758866909</v>
+        <v>0.8008751315353191</v>
       </c>
       <c r="D18">
-        <v>1.997561931610107</v>
+        <v>2.083503246307373</v>
       </c>
       <c r="E18">
-        <v>24.9</v>
+        <v>23.83</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.06644917678833008</v>
+        <v>0.06984507331848144</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.746061587755659</v>
+        <v>0.7123803359217349</v>
       </c>
       <c r="D19">
-        <v>2.047575712203979</v>
+        <v>2.090884208679199</v>
       </c>
       <c r="E19">
-        <v>23.99</v>
+        <v>24.1</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.01096268548965454</v>
+        <v>0.01046065065860748</v>
       </c>
       <c r="J19">
-        <v>41.72</v>
+        <v>43.42</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.6688076774630927</v>
+        <v>0.6500214544017758</v>
       </c>
       <c r="D20">
-        <v>2.226088047027588</v>
+        <v>2.255833864212036</v>
       </c>
       <c r="E20">
-        <v>22.89</v>
+        <v>23.56</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.06912247543334961</v>
+        <v>0.06927313919067382</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6178608510346539</v>
+        <v>0.5838429703649166</v>
       </c>
       <c r="D21">
-        <v>2.19917893409729</v>
+        <v>2.193342208862305</v>
       </c>
       <c r="E21">
-        <v>24.59</v>
+        <v>24.24</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.009947053790092468</v>
+        <v>0.009579369258880616</v>
       </c>
       <c r="J21">
-        <v>45.78</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.5313675746453547</v>
+        <v>0.5175072956929164</v>
       </c>
       <c r="D22">
-        <v>2.504843473434448</v>
+        <v>2.339613676071167</v>
       </c>
       <c r="E22">
-        <v>22.38</v>
+        <v>23.39</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.06761933975219726</v>
+        <v>0.0687918743133545</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.4797334502228593</v>
+        <v>1.069315707789058</v>
       </c>
       <c r="D23">
-        <v>2.443653106689453</v>
+        <v>1.58771538734436</v>
       </c>
       <c r="E23">
-        <v>22.89</v>
+        <v>27.17</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.009615443015098571</v>
+        <v>0.01063668372631073</v>
       </c>
       <c r="J23">
-        <v>46.92</v>
+        <v>43.96</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.970142692063762</v>
+        <v>0.9807260527020008</v>
       </c>
       <c r="D24">
-        <v>1.642545938491821</v>
+        <v>1.598349690437317</v>
       </c>
       <c r="E24">
-        <v>27.5</v>
+        <v>27.05</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.07075354347229004</v>
+        <v>0.07332516727447509</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8747968251726269</v>
+        <v>0.9356794853126054</v>
       </c>
       <c r="D25">
-        <v>1.641742825508118</v>
+        <v>1.620900750160217</v>
       </c>
       <c r="E25">
-        <v>27.24</v>
+        <v>26.77</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.009841129398345947</v>
+        <v>0.01085623021125793</v>
       </c>
       <c r="J25">
-        <v>46.1</v>
+        <v>43.02</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.82422215168455</v>
+        <v>0.8891162624401329</v>
       </c>
       <c r="D26">
-        <v>1.674468517303467</v>
+        <v>1.621809601783752</v>
       </c>
       <c r="E26">
-        <v>27.05</v>
+        <v>26.98</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.06988781261444092</v>
+        <v>0.07317796058654785</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.7829585560655172</v>
+        <v>0.8456835382807572</v>
       </c>
       <c r="D27">
-        <v>1.677240133285522</v>
+        <v>1.656675815582275</v>
       </c>
       <c r="E27">
-        <v>27.02</v>
+        <v>26.76</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.00968890609741211</v>
+        <v>0.009473021221160888</v>
       </c>
       <c r="J27">
-        <v>48.42</v>
+        <v>48.96</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.7459198837786649</v>
+        <v>0.8095509615619626</v>
       </c>
       <c r="D28">
-        <v>1.740198969841003</v>
+        <v>1.64689302444458</v>
       </c>
       <c r="E28">
-        <v>26.96</v>
+        <v>26.95</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.07530275382995605</v>
+        <v>0.07332192611694335</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>0.705186438244001</v>
+        <v>0.763538581607616</v>
       </c>
       <c r="D29">
-        <v>1.71917200088501</v>
+        <v>1.666671633720398</v>
       </c>
       <c r="E29">
-        <v>26.91</v>
+        <v>26.61</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.01189595541954041</v>
+        <v>0.01180565741062164</v>
       </c>
       <c r="J29">
-        <v>41.88</v>
+        <v>39.46</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.667960962363049</v>
+        <v>0.7245492070122103</v>
       </c>
       <c r="D30">
-        <v>1.801657557487488</v>
+        <v>1.687181115150452</v>
       </c>
       <c r="E30">
-        <v>26.58</v>
+        <v>26.84</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.07471342277526856</v>
+        <v>0.07454254169464111</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>0.6284064455369932</v>
+        <v>0.684428653885833</v>
       </c>
       <c r="D31">
-        <v>1.806212306022644</v>
+        <v>1.716713309288025</v>
       </c>
       <c r="E31">
-        <v>26.65</v>
+        <v>26.45</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.01023998954296112</v>
+        <v>0.009707590460777283</v>
       </c>
       <c r="J31">
-        <v>46.96</v>
+        <v>48.44</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>0.5936207043386139</v>
+        <v>0.6454727383313981</v>
       </c>
       <c r="D32">
-        <v>1.802479982376099</v>
+        <v>1.730947613716125</v>
       </c>
       <c r="E32">
-        <v>26.59</v>
+        <v>26.44</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.07314711151123048</v>
+        <v>0.07560345439910889</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>0.5550836933925088</v>
+        <v>0.6042483087662047</v>
       </c>
       <c r="D33">
-        <v>1.870733976364136</v>
+        <v>1.750018835067749</v>
       </c>
       <c r="E33">
-        <v>26.19</v>
+        <v>25.88</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.009320558643341064</v>
+        <v>0.01037284936904907</v>
       </c>
       <c r="J33">
-        <v>49.8</v>
+        <v>47.66</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.5203088577342244</v>
+        <v>0.9648305367579503</v>
       </c>
       <c r="D34">
-        <v>1.828541994094849</v>
+        <v>1.573456764221191</v>
       </c>
       <c r="E34">
-        <v>26.42</v>
+        <v>27.4</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.07407647972106933</v>
+        <v>0.07942869243621827</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>0.4858542543596926</v>
+        <v>0.9460699953864106</v>
       </c>
       <c r="D35">
-        <v>1.916468381881714</v>
+        <v>1.557923197746277</v>
       </c>
       <c r="E35">
-        <v>26.02</v>
+        <v>27.31</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.01011080572605133</v>
+        <v>0.01034634637832642</v>
       </c>
       <c r="J35">
-        <v>47.98</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>0.8021947836453935</v>
+        <v>0.9298841104043268</v>
       </c>
       <c r="D36">
-        <v>1.626452684402466</v>
+        <v>1.575553178787231</v>
       </c>
       <c r="E36">
-        <v>27.68</v>
+        <v>27.25</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.0736093692779541</v>
+        <v>0.07783028945922851</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>0.7874175784862147</v>
+        <v>0.9208325696202506</v>
       </c>
       <c r="D37">
-        <v>1.629912257194519</v>
+        <v>1.59283983707428</v>
       </c>
       <c r="E37">
-        <v>27.5</v>
+        <v>27.31</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.01104795768260956</v>
+        <v>0.01089619703292847</v>
       </c>
       <c r="J37">
-        <v>45.78</v>
+        <v>47.12</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.7771437642848598</v>
+        <v>0.907640000360202</v>
       </c>
       <c r="D38">
-        <v>1.643165469169617</v>
+        <v>1.576614141464233</v>
       </c>
       <c r="E38">
-        <v>27.44</v>
+        <v>27.19</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.07585195522308349</v>
+        <v>0.07872665500640869</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>0.7621108145840401</v>
+        <v>0.896759591271392</v>
       </c>
       <c r="D39">
-        <v>1.64492404460907</v>
+        <v>1.58949875831604</v>
       </c>
       <c r="E39">
-        <v>27.55</v>
+        <v>27.22</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1523,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.01056597671508789</v>
+        <v>0.0108652853012085</v>
       </c>
       <c r="J39">
-        <v>49.18</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1537,13 +1537,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>0.7552498557926279</v>
+        <v>0.8837542259587651</v>
       </c>
       <c r="D40">
-        <v>1.662989258766174</v>
+        <v>1.571005702018738</v>
       </c>
       <c r="E40">
-        <v>27.6</v>
+        <v>27.43</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.08247693977355958</v>
+        <v>0.08112658786773681</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>0.7442709951274162</v>
+        <v>0.8724240665942167</v>
       </c>
       <c r="D41">
-        <v>1.657780051231384</v>
+        <v>1.58013916015625</v>
       </c>
       <c r="E41">
-        <v>27.46</v>
+        <v>27.29</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1581,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.0124877527475357</v>
+        <v>0.01115997784137726</v>
       </c>
       <c r="J41">
-        <v>44.76</v>
+        <v>46.78</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1595,13 +1595,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.7333032710362325</v>
+        <v>0.8618270301185877</v>
       </c>
       <c r="D42">
-        <v>1.676556825637817</v>
+        <v>1.568467140197754</v>
       </c>
       <c r="E42">
-        <v>27.39</v>
+        <v>27.21</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -1610,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.08000259647369384</v>
+        <v>0.08022654151916504</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>0.7212096072931206</v>
+        <v>0.8500461678589339</v>
       </c>
       <c r="D43">
-        <v>1.649596452713013</v>
+        <v>1.588135719299316</v>
       </c>
       <c r="E43">
-        <v>27.42</v>
+        <v>27.09</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1639,10 +1639,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.01194073176383972</v>
+        <v>0.007881249356269836</v>
       </c>
       <c r="J43">
-        <v>45.78</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1653,13 +1653,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>0.7109380258923084</v>
+        <v>0.8416807234814737</v>
       </c>
       <c r="D44">
-        <v>1.664085507392883</v>
+        <v>1.609177231788635</v>
       </c>
       <c r="E44">
-        <v>27.44</v>
+        <v>27.18</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -1668,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.0810432113647461</v>
+        <v>0.06795083084106446</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1682,13 +1682,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>0.7021424232330997</v>
+        <v>0.8298492289222448</v>
       </c>
       <c r="D45">
-        <v>1.670002102851868</v>
+        <v>1.607682347297668</v>
       </c>
       <c r="E45">
-        <v>27.54</v>
+        <v>27.36</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -1697,10 +1697,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.007939933848381042</v>
+        <v>0.00793548731803894</v>
       </c>
       <c r="J45">
-        <v>55</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1711,13 +1711,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.6911484119111457</v>
+        <v>0.9301850848493323</v>
       </c>
       <c r="D46">
-        <v>1.699362874031067</v>
+        <v>1.582576036453247</v>
       </c>
       <c r="E46">
-        <v>27.35</v>
+        <v>27.34</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -1726,7 +1726,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.06862359809875489</v>
+        <v>0.06863431739807128</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>0.7812817218029393</v>
+        <v>0.9251332082579621</v>
       </c>
       <c r="D47">
-        <v>1.632441401481628</v>
+        <v>1.577390193939209</v>
       </c>
       <c r="E47">
-        <v>27.75</v>
+        <v>27.29</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1755,10 +1755,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.008044475531578063</v>
+        <v>0.007972441911697388</v>
       </c>
       <c r="J47">
-        <v>54.48</v>
+        <v>53.54</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1769,13 +1769,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>0.7761396232959443</v>
+        <v>0.9234341377705599</v>
       </c>
       <c r="D48">
-        <v>1.646664023399353</v>
+        <v>1.565878987312317</v>
       </c>
       <c r="E48">
-        <v>27.68</v>
+        <v>27.37</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -1784,7 +1784,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.06903176918029785</v>
+        <v>0.0690707233428955</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1798,13 +1798,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>0.7733197502330341</v>
+        <v>0.9205727619407451</v>
       </c>
       <c r="D49">
-        <v>1.636252045631409</v>
+        <v>1.575402855873108</v>
       </c>
       <c r="E49">
-        <v>27.6</v>
+        <v>27.37</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1813,10 +1813,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.008059072065353393</v>
+        <v>0.008085449552536011</v>
       </c>
       <c r="J49">
-        <v>54.1</v>
+        <v>53.96</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1827,13 +1827,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>0.7745187963004661</v>
+        <v>0.9196729707506905</v>
       </c>
       <c r="D50">
-        <v>1.636561036109924</v>
+        <v>1.557257771492004</v>
       </c>
       <c r="E50">
-        <v>27.51</v>
+        <v>27.42</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -1842,7 +1842,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.06927185153961182</v>
+        <v>0.06988810348510742</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>0.7713837138319437</v>
+        <v>0.9145215143144658</v>
       </c>
       <c r="D51">
-        <v>1.638964653015137</v>
+        <v>1.561601638793945</v>
       </c>
       <c r="E51">
-        <v>27.58</v>
+        <v>27.36</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -1871,10 +1871,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.008180981755256653</v>
+        <v>0.008266324377059937</v>
       </c>
       <c r="J51">
-        <v>54.04</v>
+        <v>53.52</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1885,13 +1885,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>0.7670794129371643</v>
+        <v>0.9116338591660018</v>
       </c>
       <c r="D52">
-        <v>1.640806078910828</v>
+        <v>1.578960061073303</v>
       </c>
       <c r="E52">
-        <v>27.71</v>
+        <v>27.32</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -1900,7 +1900,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.0701906639099121</v>
+        <v>0.07073592472076416</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>0.7654335952438085</v>
+        <v>0.9066736191774891</v>
       </c>
       <c r="D53">
-        <v>1.630300164222717</v>
+        <v>1.577858805656433</v>
       </c>
       <c r="E53">
-        <v>27.57</v>
+        <v>27.25</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1929,10 +1929,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.008320627784729005</v>
+        <v>0.008217946767807007</v>
       </c>
       <c r="J53">
-        <v>53.92</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -1943,13 +1943,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>0.7613449814045323</v>
+        <v>0.9035391422499598</v>
       </c>
       <c r="D54">
-        <v>1.638492345809937</v>
+        <v>1.578657031059265</v>
       </c>
       <c r="E54">
-        <v>27.62</v>
+        <v>27.32</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -1958,7 +1958,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.07149867134094239</v>
+        <v>0.0725149112701416</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1972,13 +1972,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>0.7596207925703673</v>
+        <v>0.9023516695056342</v>
       </c>
       <c r="D55">
-        <v>1.653236627578735</v>
+        <v>1.558852195739746</v>
       </c>
       <c r="E55">
-        <v>27.59</v>
+        <v>27.33</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -1987,10 +1987,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.008441228866577149</v>
+        <v>0.00829659812450409</v>
       </c>
       <c r="J55">
-        <v>53.82</v>
+        <v>53.22</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2001,13 +2001,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0.7567581333945282</v>
+        <v>0.8978431393614913</v>
       </c>
       <c r="D56">
-        <v>1.642132878303528</v>
+        <v>1.564144015312195</v>
       </c>
       <c r="E56">
-        <v>27.61</v>
+        <v>27.37</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -2016,7 +2016,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.07188567962646485</v>
+        <v>0.07146355171203614</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2030,13 +2030,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>0.7805813086771332</v>
+        <v>0.897032896501828</v>
       </c>
       <c r="D57">
-        <v>1.62461245059967</v>
+        <v>1.568215370178223</v>
       </c>
       <c r="E57">
-        <v>27.62</v>
+        <v>27.36</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2045,10 +2045,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.008597544074058532</v>
+        <v>0.008365256929397583</v>
       </c>
       <c r="J57">
-        <v>53.16</v>
+        <v>53.68</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2059,13 +2059,13 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>0.7801554603914244</v>
+        <v>0.8940026723178087</v>
       </c>
       <c r="D58">
-        <v>1.631856799125671</v>
+        <v>1.577431321144104</v>
       </c>
       <c r="E58">
-        <v>27.59</v>
+        <v>27.26</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -2074,7 +2074,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.07284256515502929</v>
+        <v>0.07194858226776123</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2088,13 +2088,13 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>0.7773180234748706</v>
+        <v>0.8894185645390401</v>
       </c>
       <c r="D59">
-        <v>1.631662011146545</v>
+        <v>1.574061512947083</v>
       </c>
       <c r="E59">
-        <v>27.62</v>
+        <v>27.34</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2103,10 +2103,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.008562529492378235</v>
+        <v>0.008477403831481933</v>
       </c>
       <c r="J59">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2117,13 +2117,13 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>0.776940811524349</v>
+        <v>0.8883435072097103</v>
       </c>
       <c r="D60">
-        <v>1.635978221893311</v>
+        <v>1.574946522712708</v>
       </c>
       <c r="E60">
-        <v>27.6</v>
+        <v>27.31</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2132,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.07342429313659668</v>
+        <v>0.07290172481536865</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2146,13 +2146,13 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>0.7786857290605528</v>
+        <v>0.9112415588007564</v>
       </c>
       <c r="D61">
-        <v>1.636714816093445</v>
+        <v>1.569472432136536</v>
       </c>
       <c r="E61">
-        <v>27.67</v>
+        <v>27.27</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2161,10 +2161,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.0086355947971344</v>
+        <v>0.008596896409988404</v>
       </c>
       <c r="J61">
-        <v>53.18</v>
+        <v>52.88</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2175,13 +2175,13 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>0.7775772546244933</v>
+        <v>0.9136819401673512</v>
       </c>
       <c r="D62">
-        <v>1.621215462684631</v>
+        <v>1.567221164703369</v>
       </c>
       <c r="E62">
-        <v>27.57</v>
+        <v>27.36</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -2190,7 +2190,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.07309616394042968</v>
+        <v>0.07232187805175781</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2204,13 +2204,13 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>0.7776297172613903</v>
+        <v>0.9132082298793623</v>
       </c>
       <c r="D63">
-        <v>1.637616634368896</v>
+        <v>1.55645489692688</v>
       </c>
       <c r="E63">
-        <v>27.67</v>
+        <v>27.31</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2219,10 +2219,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.0089781240940094</v>
+        <v>0.008713775086402894</v>
       </c>
       <c r="J63">
-        <v>52.38</v>
+        <v>51.76</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2233,13 +2233,13 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0.7734655653480935</v>
+        <v>0.9106989144223981</v>
       </c>
       <c r="D64">
-        <v>1.626553177833557</v>
+        <v>1.577527165412903</v>
       </c>
       <c r="E64">
-        <v>27.55</v>
+        <v>27.34</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -2248,7 +2248,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.07375599212646484</v>
+        <v>0.07364881229400634</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2262,13 +2262,13 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>0.7737948309003779</v>
+        <v>0.9114521393733742</v>
       </c>
       <c r="D65">
-        <v>1.646681308746338</v>
+        <v>1.55515468120575</v>
       </c>
       <c r="E65">
-        <v>27.54</v>
+        <v>27.3</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2277,10 +2277,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.008877166891098022</v>
+        <v>0.007784976553916931</v>
       </c>
       <c r="J65">
-        <v>52.84</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2291,13 +2291,13 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>0.7729265542156929</v>
+        <v>0.910460816547934</v>
       </c>
       <c r="D66">
-        <v>1.651638984680176</v>
+        <v>1.562802910804749</v>
       </c>
       <c r="E66">
-        <v>27.63</v>
+        <v>27.31</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -2306,7 +2306,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.07286583061218262</v>
+        <v>0.06867988586425781</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>0.7717288780001412</v>
+        <v>0.9090795669935446</v>
       </c>
       <c r="D67">
-        <v>1.652722239494324</v>
+        <v>1.564064502716064</v>
       </c>
       <c r="E67">
-        <v>27.65</v>
+        <v>27.37</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2335,10 +2335,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.009087921833992004</v>
+        <v>0.007795687961578369</v>
       </c>
       <c r="J67">
-        <v>52.04</v>
+        <v>54.62</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2349,13 +2349,13 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>0.7743088207413665</v>
+        <v>0.9073162954465478</v>
       </c>
       <c r="D68">
-        <v>1.635189414024353</v>
+        <v>1.571980357170105</v>
       </c>
       <c r="E68">
-        <v>27.62</v>
+        <v>27.32</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -2364,7 +2364,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.07500266742706299</v>
+        <v>0.0688103744506836</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>0.773795781409846</v>
+        <v>0.9086309718874703</v>
       </c>
       <c r="D69">
-        <v>1.652583599090576</v>
+        <v>1.567209601402283</v>
       </c>
       <c r="E69">
-        <v>27.56</v>
+        <v>27.33</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2393,10 +2393,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.007894136261940002</v>
+        <v>0.007810250949859619</v>
       </c>
       <c r="J69">
-        <v>55.36</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2407,13 +2407,13 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>0.7712071100167469</v>
+        <v>0.9084424882863475</v>
       </c>
       <c r="D70">
-        <v>1.635427236557007</v>
+        <v>1.549352526664734</v>
       </c>
       <c r="E70">
-        <v>27.64</v>
+        <v>27.37</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -2422,7 +2422,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.06957343635559082</v>
+        <v>0.06896035842895508</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2436,13 +2436,13 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>0.7728415184316382</v>
+        <v>0.9067244054996861</v>
       </c>
       <c r="D71">
-        <v>1.630943894386292</v>
+        <v>1.542613506317139</v>
       </c>
       <c r="E71">
-        <v>27.65</v>
+        <v>27.35</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2451,10 +2451,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.007916924643516541</v>
+        <v>0.007811043095588684</v>
       </c>
       <c r="J71">
-        <v>55</v>
+        <v>54.62</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2465,13 +2465,13 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>0.7686526548545972</v>
+        <v>0.9052486709788837</v>
       </c>
       <c r="D72">
-        <v>1.623436331748962</v>
+        <v>1.561245560646057</v>
       </c>
       <c r="E72">
-        <v>27.64</v>
+        <v>27.35</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -2480,7 +2480,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.06979766178131104</v>
+        <v>0.06910225372314453</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>0.7762558418037617</v>
+        <v>0.9066776316777795</v>
       </c>
       <c r="D73">
-        <v>1.628628134727478</v>
+        <v>1.573259949684143</v>
       </c>
       <c r="E73">
-        <v>27.65</v>
+        <v>27.41</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2509,10 +2509,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.007922214102745056</v>
+        <v>0.007805917859077454</v>
       </c>
       <c r="J73">
-        <v>54.88</v>
+        <v>54.38</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2523,13 +2523,13 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>0.775692276722562</v>
+        <v>0.9033603061616948</v>
       </c>
       <c r="D74">
-        <v>1.632064700126648</v>
+        <v>1.552760601043701</v>
       </c>
       <c r="E74">
-        <v>27.67</v>
+        <v>27.36</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -2538,7 +2538,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.06974747657775879</v>
+        <v>0.06900441627502442</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>0.7762943764703464</v>
+        <v>0.904333369921794</v>
       </c>
       <c r="D75">
-        <v>1.634575009346008</v>
+        <v>1.565132617950439</v>
       </c>
       <c r="E75">
-        <v>27.64</v>
+        <v>27.27</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2567,10 +2567,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.007940073275566102</v>
+        <v>0.007842425441741943</v>
       </c>
       <c r="J75">
-        <v>55.1</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2581,13 +2581,13 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>0.7743593290843794</v>
+        <v>0.9050852213285666</v>
       </c>
       <c r="D76">
-        <v>1.650474190711975</v>
+        <v>1.578452825546265</v>
       </c>
       <c r="E76">
-        <v>27.71</v>
+        <v>27.38</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -2596,7 +2596,7 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.06984067573547363</v>
+        <v>0.06913162651062012</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2610,13 +2610,13 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>0.7756168837040927</v>
+        <v>0.9016757053611553</v>
       </c>
       <c r="D77">
-        <v>1.638531804084778</v>
+        <v>1.583231806755066</v>
       </c>
       <c r="E77">
-        <v>27.62</v>
+        <v>27.41</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2625,10 +2625,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.007958721804618835</v>
+        <v>0.007832278370857239</v>
       </c>
       <c r="J77">
-        <v>55.2</v>
+        <v>54.86</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2639,13 +2639,13 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>0.7743203766578066</v>
+        <v>0.9020615299191095</v>
       </c>
       <c r="D78">
-        <v>1.630230903625488</v>
+        <v>1.571643352508545</v>
       </c>
       <c r="E78">
-        <v>27.7</v>
+        <v>27.34</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -2654,7 +2654,7 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.07018662738800049</v>
+        <v>0.06940962963104248</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2668,13 +2668,13 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>0.7760603485909183</v>
+        <v>0.8988188526271719</v>
       </c>
       <c r="D79">
-        <v>1.624853014945984</v>
+        <v>1.568515062332153</v>
       </c>
       <c r="E79">
-        <v>27.64</v>
+        <v>27.39</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2683,10 +2683,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.007980247211456298</v>
+        <v>0.007850888514518737</v>
       </c>
       <c r="J79">
-        <v>54.92</v>
+        <v>54.58</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2697,13 +2697,13 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>0.7732445022701162</v>
+        <v>0.900080053679711</v>
       </c>
       <c r="D80">
-        <v>1.637502789497375</v>
+        <v>1.582761406898499</v>
       </c>
       <c r="E80">
-        <v>27.66</v>
+        <v>27.29</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -2712,7 +2712,7 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.07033746318817138</v>
+        <v>0.06965656738281251</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>0.7759722740249296</v>
+        <v>0.9020603568153044</v>
       </c>
       <c r="D81">
-        <v>1.620630025863647</v>
+        <v>1.565385580062866</v>
       </c>
       <c r="E81">
-        <v>27.62</v>
+        <v>27.26</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2741,10 +2741,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.008017710924148559</v>
+        <v>0.00785838885307312</v>
       </c>
       <c r="J81">
-        <v>54.78</v>
+        <v>54.42</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2755,13 +2755,13 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>0.7768806192727216</v>
+        <v>0.9040841465502714</v>
       </c>
       <c r="D82">
-        <v>1.630739688873291</v>
+        <v>1.566652774810791</v>
       </c>
       <c r="E82">
-        <v>27.6</v>
+        <v>27.28</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -2770,7 +2770,7 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.0702340618133545</v>
+        <v>0.0697258264541626</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -2784,13 +2784,13 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>0.7743448061225688</v>
+        <v>0.9057019753793699</v>
       </c>
       <c r="D83">
-        <v>1.645606637001038</v>
+        <v>1.569682002067566</v>
       </c>
       <c r="E83">
-        <v>27.6</v>
+        <v>27.34</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2799,10 +2799,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.008022982144355774</v>
+        <v>0.00789783546924591</v>
       </c>
       <c r="J83">
-        <v>54.84</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2813,13 +2813,13 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>0.7754719921972899</v>
+        <v>0.9055801387381764</v>
       </c>
       <c r="D84">
-        <v>1.637019872665405</v>
+        <v>1.557675361633301</v>
       </c>
       <c r="E84">
-        <v>27.63</v>
+        <v>27.37</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -2828,7 +2828,7 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.0705829704284668</v>
+        <v>0.07018408679962158</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>0.7746740020481886</v>
+        <v>0.9049546344090352</v>
       </c>
       <c r="D85">
-        <v>1.632756114006042</v>
+        <v>1.563705086708069</v>
       </c>
       <c r="E85">
-        <v>27.65</v>
+        <v>27.38</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2857,10 +2857,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>0.008051408863067627</v>
+        <v>0.007907687139511108</v>
       </c>
       <c r="J85">
-        <v>54.88</v>
+        <v>54.36</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2871,13 +2871,13 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>0.774343766469871</v>
+        <v>0.9016089697854709</v>
       </c>
       <c r="D86">
-        <v>1.628130435943604</v>
+        <v>1.575840473175049</v>
       </c>
       <c r="E86">
-        <v>27.57</v>
+        <v>27.4</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -2886,7 +2886,7 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>0.07094668064117432</v>
+        <v>0.06986183261871338</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -2900,13 +2900,13 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>0.772532099116165</v>
+        <v>0.9053353250554178</v>
       </c>
       <c r="D87">
-        <v>1.64127504825592</v>
+        <v>1.574727773666382</v>
       </c>
       <c r="E87">
-        <v>27.69</v>
+        <v>27.44</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2915,10 +2915,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>0.008054231667518615</v>
+        <v>0.007906426358222961</v>
       </c>
       <c r="J87">
-        <v>55.08</v>
+        <v>54.72</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2929,13 +2929,13 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>0.7749154193211446</v>
+        <v>0.9031623702133651</v>
       </c>
       <c r="D88">
-        <v>1.622777462005615</v>
+        <v>1.574508190155029</v>
       </c>
       <c r="E88">
-        <v>27.68</v>
+        <v>27.47</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -2944,7 +2944,7 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>0.07074797554016113</v>
+        <v>0.07026362495422363</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>0.7730861907511686</v>
+        <v>0.903910046130155</v>
       </c>
       <c r="D89">
-        <v>1.627750754356384</v>
+        <v>1.589485049247742</v>
       </c>
       <c r="E89">
-        <v>27.58</v>
+        <v>27.37</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -2973,10 +2973,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>0.008094332551956176</v>
+        <v>0.007789578771591187</v>
       </c>
       <c r="J89">
-        <v>54.7</v>
+        <v>54.68</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -2987,13 +2987,13 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>0.7737824589805266</v>
+        <v>0.9023901915128252</v>
       </c>
       <c r="D90">
-        <v>1.633544683456421</v>
+        <v>1.559852361679077</v>
       </c>
       <c r="E90">
-        <v>27.65</v>
+        <v>27.32</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -3002,7 +3002,7 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>0.07094413719177246</v>
+        <v>0.06900395069122314</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -3016,13 +3016,13 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>0.7744551633311584</v>
+        <v>0.9039977556836288</v>
       </c>
       <c r="D91">
-        <v>1.625524282455444</v>
+        <v>1.554105043411255</v>
       </c>
       <c r="E91">
-        <v>27.6</v>
+        <v>27.25</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3031,10 +3031,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>0.007890697479248046</v>
+        <v>0.007792849779129028</v>
       </c>
       <c r="J91">
-        <v>55.5</v>
+        <v>54.58</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3045,13 +3045,13 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>0.7725203823199315</v>
+        <v>0.9037479758262634</v>
       </c>
       <c r="D92">
-        <v>1.629070043563843</v>
+        <v>1.564753651618958</v>
       </c>
       <c r="E92">
-        <v>27.67</v>
+        <v>27.44</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -3060,7 +3060,7 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>0.0697726058959961</v>
+        <v>0.06905040874481201</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>0.7743639497630364</v>
+        <v>0.9051894619401577</v>
       </c>
       <c r="D93">
-        <v>1.634297609329224</v>
+        <v>1.576672673225403</v>
       </c>
       <c r="E93">
-        <v>27.72</v>
+        <v>27.34</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -3089,10 +3089,10 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>0.007892768192291259</v>
+        <v>0.007788726592063904</v>
       </c>
       <c r="J93">
-        <v>55.36</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3103,13 +3103,13 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>0.7736461210039864</v>
+        <v>0.9051309180470695</v>
       </c>
       <c r="D94">
-        <v>1.630430459976196</v>
+        <v>1.553250789642334</v>
       </c>
       <c r="E94">
-        <v>27.57</v>
+        <v>27.32</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -3118,7 +3118,7 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>0.06962204093933105</v>
+        <v>0.06897885818481446</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -3132,13 +3132,13 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>0.7744889834285837</v>
+        <v>0.9062199866877193</v>
       </c>
       <c r="D95">
-        <v>1.630009889602661</v>
+        <v>1.566623330116272</v>
       </c>
       <c r="E95">
-        <v>27.64</v>
+        <v>27.3</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3147,10 +3147,10 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>0.007893845415115357</v>
+        <v>0.007790157294273376</v>
       </c>
       <c r="J95">
-        <v>55.2</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3161,13 +3161,13 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>0.7757630538096471</v>
+        <v>0.9062601090532488</v>
       </c>
       <c r="D96">
-        <v>1.632657051086426</v>
+        <v>1.578296661376953</v>
       </c>
       <c r="E96">
-        <v>27.51</v>
+        <v>27.23</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -3176,7 +3176,7 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>0.06952310619354247</v>
+        <v>0.06900244426727295</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -3190,13 +3190,13 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>0.7731268094704214</v>
+        <v>0.9054007936367946</v>
       </c>
       <c r="D97">
-        <v>1.621766686439514</v>
+        <v>1.569331288337708</v>
       </c>
       <c r="E97">
-        <v>27.69</v>
+        <v>27.29</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3205,10 +3205,10 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>0.007895858192443848</v>
+        <v>0.007794207072257996</v>
       </c>
       <c r="J97">
-        <v>55.02</v>
+        <v>54.84</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3219,13 +3219,13 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>0.7736391683595371</v>
+        <v>0.9047814037947528</v>
       </c>
       <c r="D98">
-        <v>1.647761344909668</v>
+        <v>1.573449373245239</v>
       </c>
       <c r="E98">
-        <v>27.64</v>
+        <v>27.21</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -3234,7 +3234,7 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>0.06969204769134521</v>
+        <v>0.06907285919189453</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -3248,13 +3248,13 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>0.7745672422172749</v>
+        <v>0.9040705514165153</v>
       </c>
       <c r="D99">
-        <v>1.638322472572327</v>
+        <v>1.569990754127502</v>
       </c>
       <c r="E99">
-        <v>27.52</v>
+        <v>27.34</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3263,10 +3263,10 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>0.007904046440124511</v>
+        <v>0.0077957115650177</v>
       </c>
       <c r="J99">
-        <v>55.16</v>
+        <v>54.72</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3277,13 +3277,13 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>0.7744964197673628</v>
+        <v>0.9076755954101022</v>
       </c>
       <c r="D100">
-        <v>1.638432741165161</v>
+        <v>1.568764209747314</v>
       </c>
       <c r="E100">
-        <v>27.64</v>
+        <v>27.3</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -3292,7 +3292,7 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>0.06978132019042969</v>
+        <v>0.06913993988037109</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -3306,13 +3306,13 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>0.7752351439104671</v>
+        <v>0.9042594047774256</v>
       </c>
       <c r="D101">
-        <v>1.627081394195557</v>
+        <v>1.571122765541077</v>
       </c>
       <c r="E101">
-        <v>27.66</v>
+        <v>27.37</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -3321,10 +3321,10 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>0.00790949683189392</v>
+        <v>0.007803335833549499</v>
       </c>
       <c r="J101">
-        <v>55.42</v>
+        <v>54.64</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3335,13 +3335,13 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>0.776333431754492</v>
+        <v>0.9047786477392754</v>
       </c>
       <c r="D102">
-        <v>1.639507174491882</v>
+        <v>1.573245048522949</v>
       </c>
       <c r="E102">
-        <v>27.63</v>
+        <v>27.38</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -3350,7 +3350,7 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>0.06975087127685548</v>
+        <v>0.0691108268737793</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -3364,13 +3364,13 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>0.7752911770238285</v>
+        <v>0.9046270129954921</v>
       </c>
       <c r="D103">
-        <v>1.647777676582336</v>
+        <v>1.570675134658813</v>
       </c>
       <c r="E103">
-        <v>27.68</v>
+        <v>27.43</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -3379,10 +3379,10 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>0.007915047311782837</v>
+        <v>0.007800823855400085</v>
       </c>
       <c r="J103">
-        <v>55.14</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3393,13 +3393,13 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>0.7724808248798404</v>
+        <v>0.9060201222917675</v>
       </c>
       <c r="D104">
-        <v>1.641684651374817</v>
+        <v>1.57148802280426</v>
       </c>
       <c r="E104">
-        <v>27.73</v>
+        <v>27.29</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -3408,7 +3408,7 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>0.07001271686553955</v>
+        <v>0.06917161598205566</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -3422,13 +3422,13 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <v>0.7733462120579407</v>
+        <v>0.9040095078206696</v>
       </c>
       <c r="D105">
-        <v>1.626524925231934</v>
+        <v>1.558894991874695</v>
       </c>
       <c r="E105">
-        <v>27.69</v>
+        <v>27.3</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -3437,10 +3437,10 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <v>0.007913493371009826</v>
+        <v>0.007800466823577881</v>
       </c>
       <c r="J105">
-        <v>55.24</v>
+        <v>54.64</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3451,13 +3451,13 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>0.7751030352263324</v>
+        <v>0.903724363419862</v>
       </c>
       <c r="D106">
-        <v>1.625074744224548</v>
+        <v>1.568509697914124</v>
       </c>
       <c r="E106">
-        <v>27.65</v>
+        <v>27.31</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -3466,7 +3466,7 @@
         <v>52</v>
       </c>
       <c r="I106">
-        <v>0.06988090057373048</v>
+        <v>0.06917483043670654</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <v>0.7743354434460665</v>
+        <v>0.9054761956223344</v>
       </c>
       <c r="D107">
-        <v>1.626192450523376</v>
+        <v>1.575166344642639</v>
       </c>
       <c r="E107">
-        <v>27.61</v>
+        <v>27.33</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -3495,10 +3495,10 @@
         <v>53</v>
       </c>
       <c r="I107">
-        <v>0.007922508907318115</v>
+        <v>0.007804239249229432</v>
       </c>
       <c r="J107">
-        <v>55.18</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3509,13 +3509,13 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>0.7747469560234947</v>
+        <v>0.90627103200001</v>
       </c>
       <c r="D108">
-        <v>1.639574289321899</v>
+        <v>1.561061024665833</v>
       </c>
       <c r="E108">
-        <v>27.58</v>
+        <v>27.35</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -3524,7 +3524,7 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <v>0.06998140773773194</v>
+        <v>0.06911274375915527</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -3538,13 +3538,13 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>0.7745975509154058</v>
+        <v>0.9075578387859649</v>
       </c>
       <c r="D109">
-        <v>1.638761043548584</v>
+        <v>1.585179567337036</v>
       </c>
       <c r="E109">
-        <v>27.62</v>
+        <v>27.42</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -3553,10 +3553,10 @@
         <v>54</v>
       </c>
       <c r="I109">
-        <v>0.007929133749008178</v>
+        <v>0.007804379773139953</v>
       </c>
       <c r="J109">
-        <v>55.22</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3567,13 +3567,13 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>0.7738392052397264</v>
+        <v>0.9055310039393669</v>
       </c>
       <c r="D110">
-        <v>1.635488748550415</v>
+        <v>1.570112466812134</v>
       </c>
       <c r="E110">
-        <v>27.61</v>
+        <v>27.28</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -3582,7 +3582,7 @@
         <v>54</v>
       </c>
       <c r="I110">
-        <v>0.07002174892425538</v>
+        <v>0.06946866397857666</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>0.772997597150043</v>
+        <v>0.9061137237380036</v>
       </c>
       <c r="D111">
-        <v>1.655185580253601</v>
+        <v>1.584161520004272</v>
       </c>
       <c r="E111">
-        <v>27.61</v>
+        <v>27.29</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -3611,10 +3611,10 @@
         <v>55</v>
       </c>
       <c r="I111">
-        <v>0.007894116640090942</v>
+        <v>0.007808051085472107</v>
       </c>
       <c r="J111">
-        <v>55.24</v>
+        <v>54.72</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3625,7 +3625,7 @@
         <v>55</v>
       </c>
       <c r="I112">
-        <v>0.06969110565185548</v>
+        <v>0.06933419322967529</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -3639,10 +3639,10 @@
         <v>56</v>
       </c>
       <c r="I113">
-        <v>0.007892236232757569</v>
+        <v>0.007811871480941772</v>
       </c>
       <c r="J113">
-        <v>55.18</v>
+        <v>54.52</v>
       </c>
     </row>
     <row r="114" spans="7:10">
@@ -3653,7 +3653,7 @@
         <v>56</v>
       </c>
       <c r="I114">
-        <v>0.06960966567993164</v>
+        <v>0.06944773216247559</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>57</v>
       </c>
       <c r="I115">
-        <v>0.00789345018863678</v>
+        <v>0.007816302251815796</v>
       </c>
       <c r="J115">
-        <v>55.24</v>
+        <v>54.68</v>
       </c>
     </row>
     <row r="116" spans="7:10">
@@ -3681,7 +3681,7 @@
         <v>57</v>
       </c>
       <c r="I116">
-        <v>0.06954333477020264</v>
+        <v>0.06943337574005128</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -3695,10 +3695,10 @@
         <v>58</v>
       </c>
       <c r="I117">
-        <v>0.007900592017173767</v>
+        <v>0.007816804242134094</v>
       </c>
       <c r="J117">
-        <v>55.2</v>
+        <v>54.62</v>
       </c>
     </row>
     <row r="118" spans="7:10">
@@ -3709,7 +3709,7 @@
         <v>58</v>
       </c>
       <c r="I118">
-        <v>0.06968199920654297</v>
+        <v>0.06957073001861572</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>59</v>
       </c>
       <c r="I119">
-        <v>0.00789559473991394</v>
+        <v>0.007802669334411621</v>
       </c>
       <c r="J119">
-        <v>55.34</v>
+        <v>54.54</v>
       </c>
     </row>
     <row r="120" spans="7:10">
@@ -3737,7 +3737,7 @@
         <v>59</v>
       </c>
       <c r="I120">
-        <v>0.06956745338439942</v>
+        <v>0.06897888355255127</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>60</v>
       </c>
       <c r="I121">
-        <v>0.007894299745559693</v>
+        <v>0.00779796953201294</v>
       </c>
       <c r="J121">
-        <v>55.14</v>
+        <v>54.72</v>
       </c>
     </row>
     <row r="122" spans="7:10">
@@ -3765,7 +3765,7 @@
         <v>60</v>
       </c>
       <c r="I122">
-        <v>0.06964830780029296</v>
+        <v>0.06903982334136963</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -3779,10 +3779,10 @@
         <v>61</v>
       </c>
       <c r="I123">
-        <v>0.007892436456680299</v>
+        <v>0.00779710385799408</v>
       </c>
       <c r="J123">
-        <v>55.34</v>
+        <v>54.62</v>
       </c>
     </row>
     <row r="124" spans="7:10">
@@ -3793,7 +3793,7 @@
         <v>61</v>
       </c>
       <c r="I124">
-        <v>0.0695656566619873</v>
+        <v>0.06913765907287597</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -3807,10 +3807,10 @@
         <v>62</v>
       </c>
       <c r="I125">
-        <v>0.007900986552238464</v>
+        <v>0.007801753664016723</v>
       </c>
       <c r="J125">
-        <v>55.1</v>
+        <v>54.68</v>
       </c>
     </row>
     <row r="126" spans="7:10">
@@ -3821,7 +3821,7 @@
         <v>62</v>
       </c>
       <c r="I126">
-        <v>0.06985490074157714</v>
+        <v>0.06913562831878663</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -3835,10 +3835,10 @@
         <v>63</v>
       </c>
       <c r="I127">
-        <v>0.007900579190254211</v>
+        <v>0.007798608446121216</v>
       </c>
       <c r="J127">
-        <v>55.08</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="128" spans="7:10">
@@ -3849,7 +3849,7 @@
         <v>63</v>
       </c>
       <c r="I128">
-        <v>0.06948810844421387</v>
+        <v>0.06908629932403565</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -3863,10 +3863,10 @@
         <v>64</v>
       </c>
       <c r="I129">
-        <v>0.007893029451370239</v>
+        <v>0.007800664496421814</v>
       </c>
       <c r="J129">
-        <v>55.26</v>
+        <v>54.62</v>
       </c>
     </row>
     <row r="130" spans="7:10">
@@ -3877,7 +3877,7 @@
         <v>64</v>
       </c>
       <c r="I130">
-        <v>0.06965972843170166</v>
+        <v>0.06937960395812988</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -3891,10 +3891,10 @@
         <v>65</v>
       </c>
       <c r="I131">
-        <v>0.007889541006088257</v>
+        <v>0.007795785284042359</v>
       </c>
       <c r="J131">
-        <v>55.3</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="132" spans="7:10">
@@ -3905,7 +3905,7 @@
         <v>65</v>
       </c>
       <c r="I132">
-        <v>0.06970608901977539</v>
+        <v>0.06897103633880615</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -3919,10 +3919,10 @@
         <v>66</v>
       </c>
       <c r="I133">
-        <v>0.007897892451286316</v>
+        <v>0.007803033638000488</v>
       </c>
       <c r="J133">
-        <v>55.24</v>
+        <v>54.64</v>
       </c>
     </row>
     <row r="134" spans="7:10">
@@ -3933,7 +3933,7 @@
         <v>66</v>
       </c>
       <c r="I134">
-        <v>0.06994100399017333</v>
+        <v>0.06925224533081055</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -3947,10 +3947,10 @@
         <v>67</v>
       </c>
       <c r="I135">
-        <v>0.007896318912506103</v>
+        <v>0.00779928195476532</v>
       </c>
       <c r="J135">
-        <v>55.12</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="136" spans="7:10">
@@ -3961,7 +3961,7 @@
         <v>67</v>
       </c>
       <c r="I136">
-        <v>0.06962461566925049</v>
+        <v>0.06912614822387696</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -3975,10 +3975,10 @@
         <v>68</v>
       </c>
       <c r="I137">
-        <v>0.007895942854881287</v>
+        <v>0.007803779053688049</v>
       </c>
       <c r="J137">
-        <v>55.28</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="138" spans="7:10">
@@ -3989,7 +3989,7 @@
         <v>68</v>
       </c>
       <c r="I138">
-        <v>0.06970143070220947</v>
+        <v>0.06936886901855469</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -4003,10 +4003,10 @@
         <v>69</v>
       </c>
       <c r="I139">
-        <v>0.007893787264823914</v>
+        <v>0.007807897615432739</v>
       </c>
       <c r="J139">
-        <v>55.3</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="140" spans="7:10">
@@ -4017,7 +4017,7 @@
         <v>69</v>
       </c>
       <c r="I140">
-        <v>0.06985595607757568</v>
+        <v>0.0692256742477417</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>70</v>
       </c>
       <c r="I141">
-        <v>0.007892828130722045</v>
+        <v>0.007804783272743225</v>
       </c>
       <c r="J141">
-        <v>55.28</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="142" spans="7:10">
@@ -4045,7 +4045,7 @@
         <v>70</v>
       </c>
       <c r="I142">
-        <v>0.06987145137786865</v>
+        <v>0.06915445880889892</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -4059,10 +4059,10 @@
         <v>71</v>
       </c>
       <c r="I143">
-        <v>0.00789288980960846</v>
+        <v>0.00780103828907013</v>
       </c>
       <c r="J143">
-        <v>55.3</v>
+        <v>54.82</v>
       </c>
     </row>
     <row r="144" spans="7:10">
@@ -4073,7 +4073,7 @@
         <v>71</v>
       </c>
       <c r="I144">
-        <v>0.06972552795410156</v>
+        <v>0.06912175903320313</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -4087,10 +4087,10 @@
         <v>72</v>
       </c>
       <c r="I145">
-        <v>0.007888210153579711</v>
+        <v>0.007803916454315185</v>
       </c>
       <c r="J145">
-        <v>55.34</v>
+        <v>54.72</v>
       </c>
     </row>
     <row r="146" spans="7:10">
@@ -4101,7 +4101,7 @@
         <v>72</v>
       </c>
       <c r="I146">
-        <v>0.06956389102935791</v>
+        <v>0.06935028762817383</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -4115,10 +4115,10 @@
         <v>73</v>
       </c>
       <c r="I147">
-        <v>0.007892418742179871</v>
+        <v>0.007806894445419312</v>
       </c>
       <c r="J147">
-        <v>55.28</v>
+        <v>54.54</v>
       </c>
     </row>
     <row r="148" spans="7:10">
@@ -4129,7 +4129,7 @@
         <v>73</v>
       </c>
       <c r="I148">
-        <v>0.06955170230865479</v>
+        <v>0.06923823642730713</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>74</v>
       </c>
       <c r="I149">
-        <v>0.007889707231521607</v>
+        <v>0.00780549213886261</v>
       </c>
       <c r="J149">
-        <v>55.42</v>
+        <v>54.76</v>
       </c>
     </row>
     <row r="150" spans="7:10">
@@ -4157,7 +4157,7 @@
         <v>74</v>
       </c>
       <c r="I150">
-        <v>0.06948967704772949</v>
+        <v>0.06948546829223633</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -4171,10 +4171,10 @@
         <v>75</v>
       </c>
       <c r="I151">
-        <v>0.007897368860244751</v>
+        <v>0.00780303099155426</v>
       </c>
       <c r="J151">
-        <v>55.24</v>
+        <v>54.82</v>
       </c>
     </row>
     <row r="152" spans="7:10">
@@ -4185,7 +4185,7 @@
         <v>75</v>
       </c>
       <c r="I152">
-        <v>0.06959507160186768</v>
+        <v>0.06947501850128174</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -4199,10 +4199,10 @@
         <v>76</v>
       </c>
       <c r="I153">
-        <v>0.007894483828544617</v>
+        <v>0.007803232336044312</v>
       </c>
       <c r="J153">
-        <v>55.4</v>
+        <v>54.68</v>
       </c>
     </row>
     <row r="154" spans="7:10">
@@ -4213,7 +4213,7 @@
         <v>76</v>
       </c>
       <c r="I154">
-        <v>0.06974508399963379</v>
+        <v>0.06932418117523194</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -4227,10 +4227,10 @@
         <v>77</v>
       </c>
       <c r="I155">
-        <v>0.007899423336982727</v>
+        <v>0.007802499079704285</v>
       </c>
       <c r="J155">
-        <v>55.28</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="156" spans="7:10">
@@ -4241,7 +4241,7 @@
         <v>77</v>
       </c>
       <c r="I156">
-        <v>0.06992238693237304</v>
+        <v>0.06943019371032715</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -4255,10 +4255,10 @@
         <v>78</v>
       </c>
       <c r="I157">
-        <v>0.007895479059219361</v>
+        <v>0.007799420571327209</v>
       </c>
       <c r="J157">
-        <v>55.32</v>
+        <v>54.58</v>
       </c>
     </row>
     <row r="158" spans="7:10">
@@ -4269,7 +4269,7 @@
         <v>78</v>
       </c>
       <c r="I158">
-        <v>0.06970005645751953</v>
+        <v>0.06938891105651855</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -4283,10 +4283,10 @@
         <v>79</v>
       </c>
       <c r="I159">
-        <v>0.007899968361854554</v>
+        <v>0.007801628875732422</v>
       </c>
       <c r="J159">
-        <v>55.24</v>
+        <v>54.52</v>
       </c>
     </row>
     <row r="160" spans="7:10">
@@ -4297,7 +4297,7 @@
         <v>79</v>
       </c>
       <c r="I160">
-        <v>0.06992267246246338</v>
+        <v>0.06947374572753906</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>80</v>
       </c>
       <c r="I161">
-        <v>0.007899967479705811</v>
+        <v>0.007802014136314392</v>
       </c>
       <c r="J161">
-        <v>55.2</v>
+        <v>54.56</v>
       </c>
     </row>
     <row r="162" spans="7:10">
@@ -4325,7 +4325,7 @@
         <v>80</v>
       </c>
       <c r="I162">
-        <v>0.06976064987182617</v>
+        <v>0.06920286445617675</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -4339,10 +4339,10 @@
         <v>81</v>
       </c>
       <c r="I163">
-        <v>0.007902310752868652</v>
+        <v>0.007802509641647339</v>
       </c>
       <c r="J163">
-        <v>55.2</v>
+        <v>54.68</v>
       </c>
     </row>
     <row r="164" spans="7:10">
@@ -4353,7 +4353,7 @@
         <v>81</v>
       </c>
       <c r="I164">
-        <v>0.06958568077087403</v>
+        <v>0.06918367671966552</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -4367,10 +4367,10 @@
         <v>82</v>
       </c>
       <c r="I165">
-        <v>0.007895477414131165</v>
+        <v>0.007802768301963806</v>
       </c>
       <c r="J165">
-        <v>55.26</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="166" spans="7:10">
@@ -4381,7 +4381,7 @@
         <v>82</v>
       </c>
       <c r="I166">
-        <v>0.06977398223876953</v>
+        <v>0.06917540836334228</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -4395,10 +4395,10 @@
         <v>83</v>
       </c>
       <c r="I167">
-        <v>0.007890668034553528</v>
+        <v>0.007805914282798767</v>
       </c>
       <c r="J167">
-        <v>55.3</v>
+        <v>54.76</v>
       </c>
     </row>
     <row r="168" spans="7:10">
@@ -4409,7 +4409,7 @@
         <v>83</v>
       </c>
       <c r="I168">
-        <v>0.06969774131774903</v>
+        <v>0.06919197616577148</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -4423,10 +4423,10 @@
         <v>84</v>
       </c>
       <c r="I169">
-        <v>0.007898978996276855</v>
+        <v>0.007800800514221192</v>
       </c>
       <c r="J169">
-        <v>55.14</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="170" spans="7:10">
@@ -4437,7 +4437,7 @@
         <v>84</v>
       </c>
       <c r="I170">
-        <v>0.06981921367645263</v>
+        <v>0.06927559814453126</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -4451,10 +4451,10 @@
         <v>85</v>
       </c>
       <c r="I171">
-        <v>0.007891430640220642</v>
+        <v>0.007796826672554016</v>
       </c>
       <c r="J171">
-        <v>55.38</v>
+        <v>54.88</v>
       </c>
     </row>
     <row r="172" spans="7:10">
@@ -4465,7 +4465,7 @@
         <v>85</v>
       </c>
       <c r="I172">
-        <v>0.06986610202789306</v>
+        <v>0.06921629390716552</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -4479,10 +4479,10 @@
         <v>86</v>
       </c>
       <c r="I173">
-        <v>0.007893169403076172</v>
+        <v>0.007798609900474548</v>
       </c>
       <c r="J173">
-        <v>55.36</v>
+        <v>54.94</v>
       </c>
     </row>
     <row r="174" spans="7:10">
@@ -4493,7 +4493,7 @@
         <v>86</v>
       </c>
       <c r="I174">
-        <v>0.06980024394989014</v>
+        <v>0.0691658971786499</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -4507,10 +4507,10 @@
         <v>87</v>
       </c>
       <c r="I175">
-        <v>0.007893456029891967</v>
+        <v>0.007795120644569397</v>
       </c>
       <c r="J175">
-        <v>55.16</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="176" spans="7:10">
@@ -4521,7 +4521,7 @@
         <v>87</v>
       </c>
       <c r="I176">
-        <v>0.06957059192657471</v>
+        <v>0.06928293590545655</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -4535,10 +4535,10 @@
         <v>88</v>
       </c>
       <c r="I177">
-        <v>0.007889712595939636</v>
+        <v>0.00780147066116333</v>
       </c>
       <c r="J177">
-        <v>55.3</v>
+        <v>54.64</v>
       </c>
     </row>
     <row r="178" spans="7:10">
@@ -4549,7 +4549,7 @@
         <v>88</v>
       </c>
       <c r="I178">
-        <v>0.06975630283355713</v>
+        <v>0.06939309940338134</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -4563,10 +4563,10 @@
         <v>89</v>
       </c>
       <c r="I179">
-        <v>0.007895684599876404</v>
+        <v>0.007803694677352905</v>
       </c>
       <c r="J179">
-        <v>55.2</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="180" spans="7:10">
@@ -4577,7 +4577,7 @@
         <v>89</v>
       </c>
       <c r="I180">
-        <v>0.06984425926208496</v>
+        <v>0.06931124877929687</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -4591,10 +4591,10 @@
         <v>90</v>
       </c>
       <c r="I181">
-        <v>0.007892432069778443</v>
+        <v>0.007801988458633423</v>
       </c>
       <c r="J181">
-        <v>55.34</v>
+        <v>54.88</v>
       </c>
     </row>
     <row r="182" spans="7:10">
@@ -4605,7 +4605,7 @@
         <v>90</v>
       </c>
       <c r="I182">
-        <v>0.06965529117584228</v>
+        <v>0.06933138847351074</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -4619,10 +4619,10 @@
         <v>91</v>
       </c>
       <c r="I183">
-        <v>0.007887263631820679</v>
+        <v>0.007797083044052124</v>
       </c>
       <c r="J183">
-        <v>55.44</v>
+        <v>54.68</v>
       </c>
     </row>
     <row r="184" spans="7:10">
@@ -4633,7 +4633,7 @@
         <v>91</v>
       </c>
       <c r="I184">
-        <v>0.06965773830413818</v>
+        <v>0.06916434898376465</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -4647,10 +4647,10 @@
         <v>92</v>
       </c>
       <c r="I185">
-        <v>0.007893273043632507</v>
+        <v>0.007796644854545593</v>
       </c>
       <c r="J185">
-        <v>55.14</v>
+        <v>54.64</v>
       </c>
     </row>
     <row r="186" spans="7:10">
@@ -4661,7 +4661,7 @@
         <v>92</v>
       </c>
       <c r="I186">
-        <v>0.06975661659240723</v>
+        <v>0.06906985931396484</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -4675,10 +4675,10 @@
         <v>93</v>
       </c>
       <c r="I187">
-        <v>0.007889643239974976</v>
+        <v>0.007800713682174683</v>
       </c>
       <c r="J187">
-        <v>55.28</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="188" spans="7:10">
@@ -4689,7 +4689,7 @@
         <v>93</v>
       </c>
       <c r="I188">
-        <v>0.06960266304016113</v>
+        <v>0.06908618927001953</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -4703,10 +4703,10 @@
         <v>94</v>
       </c>
       <c r="I189">
-        <v>0.007899143671989441</v>
+        <v>0.00780226378440857</v>
       </c>
       <c r="J189">
-        <v>55.02</v>
+        <v>54.46</v>
       </c>
     </row>
     <row r="190" spans="7:10">
@@ -4717,7 +4717,7 @@
         <v>94</v>
       </c>
       <c r="I190">
-        <v>0.06981467266082764</v>
+        <v>0.06925929412841797</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -4731,10 +4731,10 @@
         <v>95</v>
       </c>
       <c r="I191">
-        <v>0.007897663307189941</v>
+        <v>0.007803706717491149</v>
       </c>
       <c r="J191">
-        <v>55.38</v>
+        <v>54.58</v>
       </c>
     </row>
     <row r="192" spans="7:10">
@@ -4745,7 +4745,7 @@
         <v>95</v>
       </c>
       <c r="I192">
-        <v>0.06975576457977295</v>
+        <v>0.06929374217987061</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>96</v>
       </c>
       <c r="I193">
-        <v>0.00789215533733368</v>
+        <v>0.00780097827911377</v>
       </c>
       <c r="J193">
-        <v>55.28</v>
+        <v>54.42</v>
       </c>
     </row>
     <row r="194" spans="7:10">
@@ -4773,7 +4773,7 @@
         <v>96</v>
       </c>
       <c r="I194">
-        <v>0.06969018592834472</v>
+        <v>0.06900557041168214</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -4787,10 +4787,10 @@
         <v>97</v>
       </c>
       <c r="I195">
-        <v>0.007895072698593139</v>
+        <v>0.007797418808937073</v>
       </c>
       <c r="J195">
-        <v>55.04</v>
+        <v>54.68</v>
       </c>
     </row>
     <row r="196" spans="7:10">
@@ -4801,7 +4801,7 @@
         <v>97</v>
       </c>
       <c r="I196">
-        <v>0.06978133373260498</v>
+        <v>0.06927819156646728</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -4815,10 +4815,10 @@
         <v>98</v>
       </c>
       <c r="I197">
-        <v>0.007895622634887696</v>
+        <v>0.007800098943710327</v>
       </c>
       <c r="J197">
-        <v>55.28</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="198" spans="7:10">
@@ -4829,7 +4829,7 @@
         <v>98</v>
       </c>
       <c r="I198">
-        <v>0.06964283142089844</v>
+        <v>0.06938224563598633</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -4843,10 +4843,10 @@
         <v>99</v>
       </c>
       <c r="I199">
-        <v>0.007892077159881591</v>
+        <v>0.007800652384757995</v>
       </c>
       <c r="J199">
-        <v>55.32</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="200" spans="7:10">
@@ -4857,7 +4857,7 @@
         <v>99</v>
       </c>
       <c r="I200">
-        <v>0.06979744796752929</v>
+        <v>0.06939067478179932</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -4871,10 +4871,10 @@
         <v>100</v>
       </c>
       <c r="I201">
-        <v>0.007889751029014588</v>
+        <v>0.007798826718330383</v>
       </c>
       <c r="J201">
-        <v>55.26</v>
+        <v>54.76</v>
       </c>
     </row>
     <row r="202" spans="7:10">
@@ -4885,7 +4885,7 @@
         <v>100</v>
       </c>
       <c r="I202">
-        <v>0.06949655151367187</v>
+        <v>0.06921045818328857</v>
       </c>
       <c r="J202">
         <v>0</v>
@@ -4899,10 +4899,10 @@
         <v>101</v>
       </c>
       <c r="I203">
-        <v>0.007891108131408692</v>
+        <v>0.007803517150878906</v>
       </c>
       <c r="J203">
-        <v>55.36</v>
+        <v>54.86</v>
       </c>
     </row>
     <row r="204" spans="7:10">
@@ -4913,7 +4913,7 @@
         <v>101</v>
       </c>
       <c r="I204">
-        <v>0.06963578872680665</v>
+        <v>0.0692888957977295</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -4927,10 +4927,10 @@
         <v>102</v>
       </c>
       <c r="I205">
-        <v>0.007890672421455384</v>
+        <v>0.007801730179786682</v>
       </c>
       <c r="J205">
-        <v>55.46</v>
+        <v>54.58</v>
       </c>
     </row>
     <row r="206" spans="7:10">
@@ -4941,7 +4941,7 @@
         <v>102</v>
       </c>
       <c r="I206">
-        <v>0.06959622554779053</v>
+        <v>0.06913197841644288</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -4955,10 +4955,10 @@
         <v>103</v>
       </c>
       <c r="I207">
-        <v>0.007895222425460816</v>
+        <v>0.007804028820991516</v>
       </c>
       <c r="J207">
-        <v>55.38</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="208" spans="7:10">
@@ -4969,7 +4969,7 @@
         <v>103</v>
       </c>
       <c r="I208">
-        <v>0.06981983623504638</v>
+        <v>0.0692320987701416</v>
       </c>
       <c r="J208">
         <v>0</v>
@@ -4983,10 +4983,10 @@
         <v>104</v>
       </c>
       <c r="I209">
-        <v>0.007895052695274353</v>
+        <v>0.007796186065673828</v>
       </c>
       <c r="J209">
-        <v>55.3</v>
+        <v>54.62</v>
       </c>
     </row>
     <row r="210" spans="7:10">
@@ -4997,7 +4997,7 @@
         <v>104</v>
       </c>
       <c r="I210">
-        <v>0.0697121530532837</v>
+        <v>0.06900164623260498</v>
       </c>
       <c r="J210">
         <v>0</v>
@@ -5011,10 +5011,10 @@
         <v>105</v>
       </c>
       <c r="I211">
-        <v>0.00789369661808014</v>
+        <v>0.007799506211280823</v>
       </c>
       <c r="J211">
-        <v>55.22</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="212" spans="7:10">
@@ -5025,7 +5025,7 @@
         <v>105</v>
       </c>
       <c r="I212">
-        <v>0.06964291801452636</v>
+        <v>0.06928082675933837</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -5039,10 +5039,10 @@
         <v>106</v>
       </c>
       <c r="I213">
-        <v>0.007896663832664489</v>
+        <v>0.007806480884552002</v>
       </c>
       <c r="J213">
-        <v>55.16</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="214" spans="7:10">
@@ -5053,7 +5053,7 @@
         <v>106</v>
       </c>
       <c r="I214">
-        <v>0.06984095268249511</v>
+        <v>0.06915449905395508</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -5067,10 +5067,10 @@
         <v>107</v>
       </c>
       <c r="I215">
-        <v>0.007896300482749939</v>
+        <v>0.007795253014564514</v>
       </c>
       <c r="J215">
-        <v>55.24</v>
+        <v>54.84</v>
       </c>
     </row>
     <row r="216" spans="7:10">
@@ -5081,7 +5081,7 @@
         <v>107</v>
       </c>
       <c r="I216">
-        <v>0.06976395301818848</v>
+        <v>0.06916777839660644</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -5095,10 +5095,10 @@
         <v>108</v>
       </c>
       <c r="I217">
-        <v>0.007895637583732604</v>
+        <v>0.007799710416793823</v>
       </c>
       <c r="J217">
-        <v>55.22</v>
+        <v>54.56</v>
       </c>
     </row>
     <row r="218" spans="7:10">
@@ -5109,7 +5109,7 @@
         <v>108</v>
       </c>
       <c r="I218">
-        <v>0.06976362972259521</v>
+        <v>0.06927463893890382</v>
       </c>
       <c r="J218">
         <v>0</v>
@@ -5123,10 +5123,10 @@
         <v>109</v>
       </c>
       <c r="I219">
-        <v>0.007907804512977601</v>
+        <v>0.007803344917297363</v>
       </c>
       <c r="J219">
-        <v>55.22</v>
+        <v>54.58</v>
       </c>
     </row>
     <row r="220" spans="7:10">
@@ -5137,7 +5137,7 @@
         <v>109</v>
       </c>
       <c r="I220">
-        <v>0.06973216762542725</v>
+        <v>0.06934506683349609</v>
       </c>
       <c r="J220">
         <v>0</v>
@@ -5154,7 +5154,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K226"/>
+  <dimension ref="A1:K202"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5213,13 +5213,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.005796657938536</v>
+        <v>3.964508175038967</v>
       </c>
       <c r="D3">
-        <v>2.869146347045898</v>
+        <v>2.844541072845459</v>
       </c>
       <c r="E3">
-        <v>25.08</v>
+        <v>25.43</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5228,10 +5228,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.01753687334060669</v>
+        <v>0.01718472080230713</v>
       </c>
       <c r="J3">
-        <v>20.54</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5242,13 +5242,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.383248789780805</v>
+        <v>2.406381655712517</v>
       </c>
       <c r="D4">
-        <v>2.57802414894104</v>
+        <v>2.49722146987915</v>
       </c>
       <c r="E4">
-        <v>29.64</v>
+        <v>30.59</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -5257,10 +5257,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.01323825192451477</v>
+        <v>0.01339027271270752</v>
       </c>
       <c r="J4">
-        <v>29.62</v>
+        <v>28.92</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5271,13 +5271,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.088627117831691</v>
+        <v>2.098900587380338</v>
       </c>
       <c r="D5">
-        <v>2.442738771438599</v>
+        <v>2.385067462921143</v>
       </c>
       <c r="E5">
-        <v>32.83</v>
+        <v>32.33</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -5286,10 +5286,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.01584123282432556</v>
+        <v>0.01620686364173889</v>
       </c>
       <c r="J5">
-        <v>24.8</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5300,13 +5300,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.898032807979454</v>
+        <v>1.915045013233107</v>
       </c>
       <c r="D6">
-        <v>2.372987985610962</v>
+        <v>2.255897521972656</v>
       </c>
       <c r="E6">
-        <v>32.86</v>
+        <v>35.42</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -5315,10 +5315,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.01189266505241394</v>
+        <v>0.01123352241516113</v>
       </c>
       <c r="J6">
-        <v>34.48</v>
+        <v>37.98</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5329,13 +5329,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.754669387324327</v>
+        <v>1.762160987270122</v>
       </c>
       <c r="D7">
-        <v>2.257598161697388</v>
+        <v>2.312509536743164</v>
       </c>
       <c r="E7">
-        <v>36.2</v>
+        <v>35.58</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -5344,10 +5344,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.0158570894241333</v>
+        <v>0.01605505623817444</v>
       </c>
       <c r="J7">
-        <v>24.92</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5358,13 +5358,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.636293264473377</v>
+        <v>1.638340616712765</v>
       </c>
       <c r="D8">
-        <v>2.465582132339478</v>
+        <v>2.276074409484863</v>
       </c>
       <c r="E8">
-        <v>33.41</v>
+        <v>36.28</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5373,10 +5373,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.01072379643917084</v>
+        <v>0.01066475105285645</v>
       </c>
       <c r="J8">
-        <v>40.74</v>
+        <v>41.76</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5387,13 +5387,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.528313946561749</v>
+        <v>1.529781747837456</v>
       </c>
       <c r="D9">
-        <v>2.405756235122681</v>
+        <v>2.281657218933105</v>
       </c>
       <c r="E9">
-        <v>34.2</v>
+        <v>37.31</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -5402,10 +5402,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.01619964647293091</v>
+        <v>0.01502056021690369</v>
       </c>
       <c r="J9">
-        <v>23.78</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5416,13 +5416,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.422667852875327</v>
+        <v>1.426534406992854</v>
       </c>
       <c r="D10">
-        <v>2.424467086791992</v>
+        <v>2.293302774429321</v>
       </c>
       <c r="E10">
-        <v>33.33</v>
+        <v>36.46</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -5431,10 +5431,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.01050646488666534</v>
+        <v>0.009863682293891906</v>
       </c>
       <c r="J10">
-        <v>41.94</v>
+        <v>45.46</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5445,13 +5445,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.331479322342646</v>
+        <v>1.323962355146603</v>
       </c>
       <c r="D11">
-        <v>2.556269407272339</v>
+        <v>2.324652433395386</v>
       </c>
       <c r="E11">
-        <v>34.99</v>
+        <v>37.48</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -5460,10 +5460,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.01527079086303711</v>
+        <v>0.01574461002349854</v>
       </c>
       <c r="J11">
-        <v>26.64</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5474,13 +5474,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.23528820884471</v>
+        <v>1.254191339421435</v>
       </c>
       <c r="D12">
-        <v>2.601253271102905</v>
+        <v>2.657805442810059</v>
       </c>
       <c r="E12">
-        <v>34.59</v>
+        <v>33.6</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5489,10 +5489,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.00985656795501709</v>
+        <v>0.009760885000228882</v>
       </c>
       <c r="J12">
-        <v>45.76</v>
+        <v>46.04</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5503,13 +5503,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.153181882537141</v>
+        <v>1.166635568044624</v>
       </c>
       <c r="D13">
-        <v>2.490763425827026</v>
+        <v>2.299354314804077</v>
       </c>
       <c r="E13">
-        <v>35.68</v>
+        <v>37.86</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -5518,10 +5518,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.01732550320625305</v>
+        <v>0.01507381300926208</v>
       </c>
       <c r="J13">
-        <v>23.3</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5532,13 +5532,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.063069494808612</v>
+        <v>1.085924466856483</v>
       </c>
       <c r="D14">
-        <v>2.51833176612854</v>
+        <v>2.332838535308838</v>
       </c>
       <c r="E14">
-        <v>37.57</v>
+        <v>39.07</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -5547,10 +5547,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.01054631171226502</v>
+        <v>0.009900807023048401</v>
       </c>
       <c r="J14">
-        <v>43.52</v>
+        <v>45.36</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5561,13 +5561,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9843143873474225</v>
+        <v>1.007633484545208</v>
       </c>
       <c r="D15">
-        <v>2.836282014846802</v>
+        <v>2.397337198257446</v>
       </c>
       <c r="E15">
-        <v>33.43</v>
+        <v>36.63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -5576,10 +5576,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.01642152166366577</v>
+        <v>0.01477295846939087</v>
       </c>
       <c r="J15">
-        <v>23.78</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5590,13 +5590,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9276333487763697</v>
+        <v>0.9128019193402764</v>
       </c>
       <c r="D16">
-        <v>2.325210094451904</v>
+        <v>2.280256509780884</v>
       </c>
       <c r="E16">
-        <v>37.78</v>
+        <v>38.45</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -5605,10 +5605,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.01035878207683563</v>
+        <v>0.01003635683059692</v>
       </c>
       <c r="J16">
-        <v>44.62</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5619,13 +5619,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8581802500348513</v>
+        <v>1.602911620723958</v>
       </c>
       <c r="D17">
-        <v>2.617788314819336</v>
+        <v>2.005334377288818</v>
       </c>
       <c r="E17">
-        <v>34.39</v>
+        <v>40.97</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -5634,10 +5634,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.01727618389129639</v>
+        <v>0.0152589168548584</v>
       </c>
       <c r="J17">
-        <v>21.84</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5648,13 +5648,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.442124077251979</v>
+        <v>1.511862814831896</v>
       </c>
       <c r="D18">
-        <v>1.971339106559753</v>
+        <v>1.992002129554749</v>
       </c>
       <c r="E18">
-        <v>41.69</v>
+        <v>40.77</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -5663,10 +5663,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.01045808579921722</v>
+        <v>0.01002056829929352</v>
       </c>
       <c r="J18">
-        <v>44.82</v>
+        <v>46.34</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5677,13 +5677,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.358071774041572</v>
+        <v>1.458947617991441</v>
       </c>
       <c r="D19">
-        <v>1.975603461265564</v>
+        <v>1.999894976615906</v>
       </c>
       <c r="E19">
-        <v>42.05</v>
+        <v>40.66</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -5692,10 +5692,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.01775020251274109</v>
+        <v>0.01632153544425964</v>
       </c>
       <c r="J19">
-        <v>25.66</v>
+        <v>27.62</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5706,13 +5706,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.308830322051535</v>
+        <v>1.408330592979379</v>
       </c>
       <c r="D20">
-        <v>1.986020088195801</v>
+        <v>1.979781270027161</v>
       </c>
       <c r="E20">
-        <v>41.49</v>
+        <v>41.77</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -5721,10 +5721,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.01125800135135651</v>
+        <v>0.01001517066955566</v>
       </c>
       <c r="J20">
-        <v>44.32</v>
+        <v>47.34</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5735,13 +5735,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.261299260214072</v>
+        <v>1.363132329214187</v>
       </c>
       <c r="D21">
-        <v>1.997133135795593</v>
+        <v>1.996655821800232</v>
       </c>
       <c r="E21">
-        <v>41.82</v>
+        <v>41.42</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -5750,10 +5750,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.01752373991012573</v>
+        <v>0.0183471248626709</v>
       </c>
       <c r="J21">
-        <v>25.78</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5764,13 +5764,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.220270083064125</v>
+        <v>1.318413701998133</v>
       </c>
       <c r="D22">
-        <v>2.023694276809692</v>
+        <v>1.995264172554016</v>
       </c>
       <c r="E22">
-        <v>41.32</v>
+        <v>41.21</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -5779,10 +5779,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.01167135171890259</v>
+        <v>0.01161873714923859</v>
       </c>
       <c r="J22">
-        <v>43.4</v>
+        <v>44.24</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5793,13 +5793,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.182080785027978</v>
+        <v>1.276697973004815</v>
       </c>
       <c r="D23">
-        <v>2.005704164505005</v>
+        <v>2.005130290985107</v>
       </c>
       <c r="E23">
-        <v>41.19</v>
+        <v>41.06</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -5808,10 +5808,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.01778323945999145</v>
+        <v>0.01648390254974365</v>
       </c>
       <c r="J23">
-        <v>25.24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5822,13 +5822,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.141483242414436</v>
+        <v>1.238312362813625</v>
       </c>
       <c r="D24">
-        <v>2.067901611328125</v>
+        <v>2.029280662536621</v>
       </c>
       <c r="E24">
-        <v>40.55</v>
+        <v>41.44</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -5837,10 +5837,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.01053864152431488</v>
+        <v>0.009672902822494507</v>
       </c>
       <c r="J24">
-        <v>46.12</v>
+        <v>49.72</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5851,13 +5851,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.100819960337918</v>
+        <v>1.193191996237048</v>
       </c>
       <c r="D25">
-        <v>2.048884391784668</v>
+        <v>2.048081874847412</v>
       </c>
       <c r="E25">
-        <v>40.72</v>
+        <v>40.82</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -5866,10 +5866,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.01758900079727173</v>
+        <v>0.01549628577232361</v>
       </c>
       <c r="J25">
-        <v>28.52</v>
+        <v>30.02</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5880,13 +5880,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.059076338398213</v>
+        <v>1.151787688942994</v>
       </c>
       <c r="D26">
-        <v>2.042064189910889</v>
+        <v>2.04534125328064</v>
       </c>
       <c r="E26">
-        <v>40.43</v>
+        <v>41.15</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -5895,10 +5895,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.01140391535758972</v>
+        <v>0.01014946930408478</v>
       </c>
       <c r="J26">
-        <v>46.62</v>
+        <v>48.12</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5909,13 +5909,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.019937760975896</v>
+        <v>1.108487016084243</v>
       </c>
       <c r="D27">
-        <v>2.062601566314697</v>
+        <v>2.060813426971436</v>
       </c>
       <c r="E27">
-        <v>40.91</v>
+        <v>40.79</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -5924,10 +5924,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.02077105011940002</v>
+        <v>0.01725245504379273</v>
       </c>
       <c r="J27">
-        <v>22.44</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5938,13 +5938,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9795993027232942</v>
+        <v>1.065494606284057</v>
       </c>
       <c r="D28">
-        <v>2.085555553436279</v>
+        <v>2.047178745269775</v>
       </c>
       <c r="E28">
-        <v>40.73</v>
+        <v>41.45</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -5953,10 +5953,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.01177735412120819</v>
+        <v>0.01000630359649658</v>
       </c>
       <c r="J28">
-        <v>44.42</v>
+        <v>48.98</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5967,13 +5967,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1.336027734944609</v>
+        <v>1.025075761233868</v>
       </c>
       <c r="D29">
-        <v>1.957568645477295</v>
+        <v>2.060733079910278</v>
       </c>
       <c r="E29">
-        <v>42.62</v>
+        <v>40.95</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -5982,10 +5982,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.01699158878326416</v>
+        <v>0.0160873281955719</v>
       </c>
       <c r="J29">
-        <v>26.9</v>
+        <v>27.82</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5996,13 +5996,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>1.316941193982857</v>
+        <v>0.9906673163783793</v>
       </c>
       <c r="D30">
-        <v>1.951075792312622</v>
+        <v>2.091772317886353</v>
       </c>
       <c r="E30">
-        <v>42.42</v>
+        <v>40.83</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -6011,10 +6011,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.01010599071979523</v>
+        <v>0.009786627888679504</v>
       </c>
       <c r="J30">
-        <v>48.66</v>
+        <v>49.08</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6025,13 +6025,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1.307731513263417</v>
+        <v>1.333807507745263</v>
       </c>
       <c r="D31">
-        <v>1.965424299240112</v>
+        <v>1.949254035949707</v>
       </c>
       <c r="E31">
-        <v>42.48</v>
+        <v>42.18</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -6040,10 +6040,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.01936766152381897</v>
+        <v>0.01363359932899475</v>
       </c>
       <c r="J31">
-        <v>23.2</v>
+        <v>29.94</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6054,13 +6054,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>1.292565497411352</v>
+        <v>1.315535461010576</v>
       </c>
       <c r="D32">
-        <v>1.941323041915894</v>
+        <v>1.955711126327515</v>
       </c>
       <c r="E32">
-        <v>42.31</v>
+        <v>41.71</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -6069,10 +6069,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.01124580874443054</v>
+        <v>0.008606306457519532</v>
       </c>
       <c r="J32">
-        <v>45.58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6083,13 +6083,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>1.284031020540769</v>
+        <v>1.30618332924486</v>
       </c>
       <c r="D33">
-        <v>1.967458605766296</v>
+        <v>1.955820202827454</v>
       </c>
       <c r="E33">
-        <v>42.31</v>
+        <v>42.08</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -6098,10 +6098,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.01368598289489746</v>
+        <v>0.01382081923484802</v>
       </c>
       <c r="J33">
-        <v>31.56</v>
+        <v>29.78</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6112,13 +6112,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>1.268031690396419</v>
+        <v>1.297363110140067</v>
       </c>
       <c r="D34">
-        <v>1.95365035533905</v>
+        <v>1.950587511062622</v>
       </c>
       <c r="E34">
-        <v>42.28</v>
+        <v>42.29</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -6127,10 +6127,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.00847566888332367</v>
+        <v>0.008648967933654786</v>
       </c>
       <c r="J34">
-        <v>51.82</v>
+        <v>51.76</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -6141,13 +6141,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>1.258201010373174</v>
+        <v>1.282252361985291</v>
       </c>
       <c r="D35">
-        <v>1.943666338920593</v>
+        <v>1.957988739013672</v>
       </c>
       <c r="E35">
-        <v>41.87</v>
+        <v>42.14</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -6156,10 +6156,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.01364724583625793</v>
+        <v>0.01347946276664734</v>
       </c>
       <c r="J35">
-        <v>32.04</v>
+        <v>30.86</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -6170,13 +6170,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>1.24972254564973</v>
+        <v>1.275067082067736</v>
       </c>
       <c r="D36">
-        <v>1.952899217605591</v>
+        <v>1.958205938339233</v>
       </c>
       <c r="E36">
-        <v>42.09999999999999</v>
+        <v>41.78</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -6185,10 +6185,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.008546800518035889</v>
+        <v>0.008664275288581848</v>
       </c>
       <c r="J36">
-        <v>52.06</v>
+        <v>50.46</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6199,13 +6199,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>1.237177695952305</v>
+        <v>1.259726676811166</v>
       </c>
       <c r="D37">
-        <v>1.959437608718872</v>
+        <v>1.942498803138733</v>
       </c>
       <c r="E37">
-        <v>42.15</v>
+        <v>42.14</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -6214,10 +6214,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.01408502984046936</v>
+        <v>0.01369870796203613</v>
       </c>
       <c r="J37">
-        <v>31.2</v>
+        <v>31.26</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -6228,13 +6228,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>1.222270955844801</v>
+        <v>1.254714553858958</v>
       </c>
       <c r="D38">
-        <v>1.961944580078125</v>
+        <v>1.947105407714844</v>
       </c>
       <c r="E38">
-        <v>42.37</v>
+        <v>42.14</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -6243,10 +6243,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.00850064344406128</v>
+        <v>0.008548956727981567</v>
       </c>
       <c r="J38">
-        <v>51.78</v>
+        <v>52.28</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -6257,13 +6257,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>1.213847771793807</v>
+        <v>1.242360143434434</v>
       </c>
       <c r="D39">
-        <v>1.969004273414612</v>
+        <v>1.967286705970764</v>
       </c>
       <c r="E39">
-        <v>42.42</v>
+        <v>42.02</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -6272,10 +6272,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.01395253567695618</v>
+        <v>0.01385952272415161</v>
       </c>
       <c r="J39">
-        <v>31.48</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -6286,13 +6286,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>1.200882558919945</v>
+        <v>1.232753179511245</v>
       </c>
       <c r="D40">
-        <v>1.966675043106079</v>
+        <v>1.960575342178345</v>
       </c>
       <c r="E40">
-        <v>41.86</v>
+        <v>42.2</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -6301,10 +6301,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.008611641144752503</v>
+        <v>0.008540681314468383</v>
       </c>
       <c r="J40">
-        <v>52.16</v>
+        <v>52.36</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -6315,13 +6315,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>1.189233962370425</v>
+        <v>1.222431766743563</v>
       </c>
       <c r="D41">
-        <v>1.959623456001282</v>
+        <v>1.957415223121643</v>
       </c>
       <c r="E41">
-        <v>42.03</v>
+        <v>41.97</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -6330,7 +6330,7 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.0146429217338562</v>
+        <v>0.01405040812492371</v>
       </c>
       <c r="J41">
         <v>30.12</v>
@@ -6344,13 +6344,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>1.179198207498408</v>
+        <v>1.206824397148729</v>
       </c>
       <c r="D42">
-        <v>1.965222954750061</v>
+        <v>1.957245349884033</v>
       </c>
       <c r="E42">
-        <v>42</v>
+        <v>41.94</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -6359,10 +6359,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.008661752057075501</v>
+        <v>0.008501829528808593</v>
       </c>
       <c r="J42">
-        <v>52.52</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -6373,13 +6373,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>1.278744219922695</v>
+        <v>1.198588490486145</v>
       </c>
       <c r="D43">
-        <v>1.950809955596924</v>
+        <v>1.960452318191528</v>
       </c>
       <c r="E43">
-        <v>42.52</v>
+        <v>42.13</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -6388,10 +6388,10 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.01419600262641907</v>
+        <v>0.01408520407676697</v>
       </c>
       <c r="J43">
-        <v>31</v>
+        <v>30.34</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -6402,13 +6402,13 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>1.274800651738433</v>
+        <v>1.191901435657423</v>
       </c>
       <c r="D44">
-        <v>1.940216541290283</v>
+        <v>1.97814404964447</v>
       </c>
       <c r="E44">
-        <v>42.36</v>
+        <v>41.97</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -6417,10 +6417,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.008795582365989684</v>
+        <v>0.008587230110168457</v>
       </c>
       <c r="J44">
-        <v>51.38</v>
+        <v>51.78</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -6431,13 +6431,13 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>1.267472169026226</v>
+        <v>1.179694234108438</v>
       </c>
       <c r="D45">
-        <v>1.958308935165405</v>
+        <v>1.968793272972107</v>
       </c>
       <c r="E45">
-        <v>42.29</v>
+        <v>41.75</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -6446,10 +6446,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.01488222870826721</v>
+        <v>0.01432178764343262</v>
       </c>
       <c r="J45">
-        <v>30.46</v>
+        <v>29.98</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -6460,13 +6460,13 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>1.268043175846541</v>
+        <v>1.166648447919054</v>
       </c>
       <c r="D46">
-        <v>1.950018286705017</v>
+        <v>1.980005621910095</v>
       </c>
       <c r="E46">
-        <v>42.15</v>
+        <v>42.05</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -6475,10 +6475,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.009023719882965088</v>
+        <v>0.008499955368041993</v>
       </c>
       <c r="J46">
-        <v>50.64</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -6489,13 +6489,13 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>1.26447590192159</v>
+        <v>1.159916690417699</v>
       </c>
       <c r="D47">
-        <v>1.946617841720581</v>
+        <v>1.968422651290894</v>
       </c>
       <c r="E47">
-        <v>42.39</v>
+        <v>42.18</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -6504,10 +6504,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.01475438385009766</v>
+        <v>0.01465440001487732</v>
       </c>
       <c r="J47">
-        <v>29.94</v>
+        <v>29.34</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -6518,13 +6518,13 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>1.262871529780278</v>
+        <v>1.243842005729675</v>
       </c>
       <c r="D48">
-        <v>1.967597126960754</v>
+        <v>1.944858551025391</v>
       </c>
       <c r="E48">
-        <v>42.3</v>
+        <v>42.05</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -6533,10 +6533,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.008810151553153992</v>
+        <v>0.008562925839424133</v>
       </c>
       <c r="J48">
-        <v>51.5</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -6547,13 +6547,13 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>1.259675361672226</v>
+        <v>1.238868466039904</v>
       </c>
       <c r="D49">
-        <v>1.939802289009094</v>
+        <v>1.96029531955719</v>
       </c>
       <c r="E49">
-        <v>42.21</v>
+        <v>42.23</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -6562,10 +6562,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.01482685499191284</v>
+        <v>0.01435560345649719</v>
       </c>
       <c r="J49">
-        <v>29.96</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -6576,13 +6576,13 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>1.257013627461025</v>
+        <v>1.236504746132157</v>
       </c>
       <c r="D50">
-        <v>1.957691669464111</v>
+        <v>1.954885125160217</v>
       </c>
       <c r="E50">
-        <v>42.29</v>
+        <v>42.08</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -6591,10 +6591,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.00891291754245758</v>
+        <v>0.008730777716636658</v>
       </c>
       <c r="J50">
-        <v>50.9</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -6605,13 +6605,13 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>1.254485672833968</v>
+        <v>1.237954201341486</v>
       </c>
       <c r="D51">
-        <v>1.966545581817627</v>
+        <v>1.957724213600159</v>
       </c>
       <c r="E51">
-        <v>42.4</v>
+        <v>42.12</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -6620,10 +6620,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.01522310409545898</v>
+        <v>0.01460928606986999</v>
       </c>
       <c r="J51">
-        <v>29.76</v>
+        <v>29.72</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -6634,13 +6634,13 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>1.25317640774915</v>
+        <v>1.234166895451189</v>
       </c>
       <c r="D52">
-        <v>1.958212971687317</v>
+        <v>1.951852202415466</v>
       </c>
       <c r="E52">
-        <v>42.42</v>
+        <v>42.07</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -6649,10 +6649,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.008915641927719117</v>
+        <v>0.008868533205986023</v>
       </c>
       <c r="J52">
-        <v>52.06</v>
+        <v>51.86</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -6663,13 +6663,13 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>1.25097428698118</v>
+        <v>1.231648971434353</v>
       </c>
       <c r="D53">
-        <v>1.954739332199097</v>
+        <v>1.955414533615112</v>
       </c>
       <c r="E53">
-        <v>42.08</v>
+        <v>42.11</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -6678,10 +6678,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.01531357555389404</v>
+        <v>0.01451683211326599</v>
       </c>
       <c r="J53">
-        <v>29.8</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -6692,13 +6692,13 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>1.250096357598597</v>
+        <v>1.228859160222164</v>
       </c>
       <c r="D54">
-        <v>1.961771607398987</v>
+        <v>1.968247532844543</v>
       </c>
       <c r="E54">
-        <v>42.21</v>
+        <v>41.9</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -6707,10 +6707,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.008887388491630554</v>
+        <v>0.008706784248352051</v>
       </c>
       <c r="J54">
-        <v>51.66</v>
+        <v>52.22</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -6721,13 +6721,13 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>1.244812024693911</v>
+        <v>1.2290893655245</v>
       </c>
       <c r="D55">
-        <v>1.942764520645142</v>
+        <v>1.96325147151947</v>
       </c>
       <c r="E55">
-        <v>42.14</v>
+        <v>42.06</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -6736,10 +6736,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.01358181982040405</v>
+        <v>0.01477914199829101</v>
       </c>
       <c r="J55">
-        <v>31.98</v>
+        <v>29.94</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -6750,13 +6750,13 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>1.237724116870335</v>
+        <v>1.225057121847763</v>
       </c>
       <c r="D56">
-        <v>1.964962005615234</v>
+        <v>1.952897191047668</v>
       </c>
       <c r="E56">
-        <v>42.2</v>
+        <v>41.94</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -6765,10 +6765,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.008401864624023437</v>
+        <v>0.008801426935195924</v>
       </c>
       <c r="J56">
-        <v>53.26</v>
+        <v>51.96</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -6779,13 +6779,13 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>1.23826505781031</v>
+        <v>1.222460257763765</v>
       </c>
       <c r="D57">
-        <v>1.959657788276672</v>
+        <v>1.972306609153748</v>
       </c>
       <c r="E57">
-        <v>42.33</v>
+        <v>42.1</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -6794,10 +6794,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.01360260806083679</v>
+        <v>0.01476418933868408</v>
       </c>
       <c r="J57">
-        <v>31.8</v>
+        <v>29.88</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -6808,13 +6808,13 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>1.233369452612741</v>
+        <v>1.241669525094584</v>
       </c>
       <c r="D58">
-        <v>1.959975123405457</v>
+        <v>1.943941473960876</v>
       </c>
       <c r="E58">
-        <v>42.28</v>
+        <v>41.97</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -6823,10 +6823,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.008415994334220887</v>
+        <v>0.00874652554988861</v>
       </c>
       <c r="J58">
-        <v>53.04</v>
+        <v>51.78</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -6837,13 +6837,13 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>1.235672995346744</v>
+        <v>1.24172757515291</v>
       </c>
       <c r="D59">
-        <v>1.966492652893066</v>
+        <v>1.949506640434265</v>
       </c>
       <c r="E59">
-        <v>42.23999999999999</v>
+        <v>42.06</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -6852,10 +6852,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.01358274393081665</v>
+        <v>0.01352430863380432</v>
       </c>
       <c r="J59">
-        <v>32.14</v>
+        <v>31.16</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -6866,13 +6866,13 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>1.255043897499033</v>
+        <v>1.241491589416452</v>
       </c>
       <c r="D60">
-        <v>1.950668334960938</v>
+        <v>1.954115748405457</v>
       </c>
       <c r="E60">
-        <v>42.14</v>
+        <v>42.12</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -6881,10 +6881,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.008421050095558167</v>
+        <v>0.008341106820106506</v>
       </c>
       <c r="J60">
-        <v>52.82</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -6895,13 +6895,13 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>1.257345943223863</v>
+        <v>1.242988217444647</v>
       </c>
       <c r="D61">
-        <v>1.958420872688293</v>
+        <v>1.943379402160645</v>
       </c>
       <c r="E61">
-        <v>42.35</v>
+        <v>42.16</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6910,10 +6910,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.01364638824462891</v>
+        <v>0.01361262989044189</v>
       </c>
       <c r="J61">
-        <v>31.94</v>
+        <v>30.88</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -6924,13 +6924,13 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>1.257784472841795</v>
+        <v>1.239167464833681</v>
       </c>
       <c r="D62">
-        <v>1.948601245880127</v>
+        <v>1.94623863697052</v>
       </c>
       <c r="E62">
-        <v>42.14</v>
+        <v>41.98999999999999</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -6939,10 +6939,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.008410809731483459</v>
+        <v>0.008357227873802185</v>
       </c>
       <c r="J62">
-        <v>52.68</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -6953,13 +6953,13 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>1.25141256601632</v>
+        <v>1.235182887842866</v>
       </c>
       <c r="D63">
-        <v>1.960678577423096</v>
+        <v>1.946179509162903</v>
       </c>
       <c r="E63">
-        <v>42.27</v>
+        <v>42.21</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6968,10 +6968,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.01363459968566895</v>
+        <v>0.01355134501457214</v>
       </c>
       <c r="J63">
-        <v>32.06</v>
+        <v>31.14</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -6982,13 +6982,13 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>1.251426557294365</v>
+        <v>1.236351247547435</v>
       </c>
       <c r="D64">
-        <v>1.945122838020325</v>
+        <v>1.964062809944153</v>
       </c>
       <c r="E64">
-        <v>42.46</v>
+        <v>42.21</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -6997,10 +6997,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.008451828074455261</v>
+        <v>0.008356979846954346</v>
       </c>
       <c r="J64">
-        <v>52.56</v>
+        <v>53.02</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -7011,13 +7011,13 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>1.253742111783449</v>
+        <v>1.233756027254117</v>
       </c>
       <c r="D65">
-        <v>1.961847186088562</v>
+        <v>1.966375708580017</v>
       </c>
       <c r="E65">
-        <v>42.17</v>
+        <v>42.05</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -7026,10 +7026,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.013719611120224</v>
+        <v>0.01365800080299377</v>
       </c>
       <c r="J65">
-        <v>31.68</v>
+        <v>31.22</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -7040,13 +7040,13 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>1.251057635359213</v>
+        <v>1.23417038739133</v>
       </c>
       <c r="D66">
-        <v>1.952761769294739</v>
+        <v>1.956716895103455</v>
       </c>
       <c r="E66">
-        <v>42.05</v>
+        <v>42.14</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -7055,10 +7055,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.008432041001319885</v>
+        <v>0.008339346933364869</v>
       </c>
       <c r="J66">
-        <v>52.88</v>
+        <v>53.36</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -7069,13 +7069,13 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>1.249047796742446</v>
+        <v>1.236614994451302</v>
       </c>
       <c r="D67">
-        <v>1.957257270812988</v>
+        <v>1.962089061737061</v>
       </c>
       <c r="E67">
-        <v>42.34</v>
+        <v>42.14</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -7084,10 +7084,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.0138362940788269</v>
+        <v>0.01357953410148621</v>
       </c>
       <c r="J67">
-        <v>30.92</v>
+        <v>31.76</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -7098,13 +7098,13 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>1.249136740658559</v>
+        <v>1.243769833830749</v>
       </c>
       <c r="D68">
-        <v>1.946385502815247</v>
+        <v>1.954220771789551</v>
       </c>
       <c r="E68">
-        <v>42.13</v>
+        <v>42.01000000000001</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -7113,10 +7113,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.008395477485656739</v>
+        <v>0.008389685058593751</v>
       </c>
       <c r="J68">
-        <v>52.82</v>
+        <v>52.52</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -7127,13 +7127,13 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>1.250985637003062</v>
+        <v>1.244491479023784</v>
       </c>
       <c r="D69">
-        <v>1.937607288360596</v>
+        <v>1.95193886756897</v>
       </c>
       <c r="E69">
-        <v>42.32</v>
+        <v>42</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -7142,10 +7142,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.01375843563079834</v>
+        <v>0.01368535604476929</v>
       </c>
       <c r="J69">
-        <v>31.54</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -7156,13 +7156,13 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>1.247558592939052</v>
+        <v>1.244400505305958</v>
       </c>
       <c r="D70">
-        <v>1.965102314949036</v>
+        <v>1.95940375328064</v>
       </c>
       <c r="E70">
-        <v>42.29</v>
+        <v>41.93</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -7171,10 +7171,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.008438529062271119</v>
+        <v>0.008350337195396424</v>
       </c>
       <c r="J70">
-        <v>52.66</v>
+        <v>52.64</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -7185,13 +7185,13 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>1.254166912870342</v>
+        <v>1.240946074732307</v>
       </c>
       <c r="D71">
-        <v>1.948026776313782</v>
+        <v>1.950343370437622</v>
       </c>
       <c r="E71">
-        <v>42.26</v>
+        <v>42.05</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -7200,10 +7200,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.01378534760475159</v>
+        <v>0.01370091333389282</v>
       </c>
       <c r="J71">
-        <v>31.44</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -7214,13 +7214,13 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>1.247108559219205</v>
+        <v>1.238911874034778</v>
       </c>
       <c r="D72">
-        <v>1.95001220703125</v>
+        <v>1.958137512207031</v>
       </c>
       <c r="E72">
-        <v>42.17</v>
+        <v>42</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -7229,10 +7229,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.008440763521194458</v>
+        <v>0.008329467725753784</v>
       </c>
       <c r="J72">
-        <v>52.86</v>
+        <v>53.18</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -7243,13 +7243,13 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>1.247960728852927</v>
+        <v>1.24475833510055</v>
       </c>
       <c r="D73">
-        <v>1.950774908065796</v>
+        <v>1.948643803596497</v>
       </c>
       <c r="E73">
-        <v>42.17</v>
+        <v>41.9</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -7258,10 +7258,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.01388412065505982</v>
+        <v>0.01371620268821716</v>
       </c>
       <c r="J73">
-        <v>31.62</v>
+        <v>31.16</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -7272,13 +7272,13 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>1.248034027968945</v>
+        <v>1.246030504200734</v>
       </c>
       <c r="D74">
-        <v>1.952536225318909</v>
+        <v>1.951555848121643</v>
       </c>
       <c r="E74">
-        <v>42.21</v>
+        <v>42.09</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -7287,7 +7287,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.008444685816764832</v>
+        <v>0.008352548718452453</v>
       </c>
       <c r="J74">
         <v>53.12</v>
@@ -7301,13 +7301,13 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>1.245905676666571</v>
+        <v>1.242977316687707</v>
       </c>
       <c r="D75">
-        <v>1.94941782951355</v>
+        <v>1.951218128204346</v>
       </c>
       <c r="E75">
-        <v>42.16</v>
+        <v>42.12</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -7316,10 +7316,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.01378745160102844</v>
+        <v>0.01375237464904785</v>
       </c>
       <c r="J75">
-        <v>32</v>
+        <v>31.26</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -7330,13 +7330,13 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>1.248010839734759</v>
+        <v>1.243262924304625</v>
       </c>
       <c r="D76">
-        <v>1.978874206542969</v>
+        <v>1.971095323562622</v>
       </c>
       <c r="E76">
-        <v>42.15000000000001</v>
+        <v>42.05</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7345,10 +7345,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.008473039555549622</v>
+        <v>0.008358315825462341</v>
       </c>
       <c r="J76">
-        <v>52.84</v>
+        <v>52.78</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -7359,13 +7359,13 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>1.249646546078377</v>
+        <v>1.239248416050762</v>
       </c>
       <c r="D77">
-        <v>1.958523869514465</v>
+        <v>1.954336762428284</v>
       </c>
       <c r="E77">
-        <v>42.27</v>
+        <v>42.01</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7374,10 +7374,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.01390517463684082</v>
+        <v>0.01370742678642273</v>
       </c>
       <c r="J77">
-        <v>31.44</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -7388,13 +7388,13 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>1.242755878944786</v>
+        <v>1.244117738438301</v>
       </c>
       <c r="D78">
-        <v>1.955454707145691</v>
+        <v>1.959985852241516</v>
       </c>
       <c r="E78">
-        <v>42.25</v>
+        <v>41.94</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -7403,10 +7403,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.008467104768753052</v>
+        <v>0.008383334040641784</v>
       </c>
       <c r="J78">
-        <v>52.28</v>
+        <v>52.92</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -7417,13 +7417,13 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>1.243313347401262</v>
+        <v>1.242931743868354</v>
       </c>
       <c r="D79">
-        <v>1.954723358154297</v>
+        <v>1.948893785476685</v>
       </c>
       <c r="E79">
-        <v>42.14</v>
+        <v>42.18</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7432,10 +7432,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.0139008752822876</v>
+        <v>0.01372403373718262</v>
       </c>
       <c r="J79">
-        <v>31.46</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -7446,13 +7446,13 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>1.254291516582982</v>
+        <v>1.241468218719067</v>
       </c>
       <c r="D80">
-        <v>1.96489155292511</v>
+        <v>1.956065893173218</v>
       </c>
       <c r="E80">
-        <v>42.29</v>
+        <v>42.08</v>
       </c>
       <c r="G80">
         <v>2</v>
@@ -7461,10 +7461,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.008474849534034729</v>
+        <v>0.008387768077850341</v>
       </c>
       <c r="J80">
-        <v>52.6</v>
+        <v>52.46</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -7475,13 +7475,13 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>1.249688434763019</v>
+        <v>1.241713553869805</v>
       </c>
       <c r="D81">
-        <v>1.962732434272766</v>
+        <v>1.951306700706482</v>
       </c>
       <c r="E81">
-        <v>42.23999999999999</v>
+        <v>42.04</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7490,10 +7490,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.01395070357322693</v>
+        <v>0.01374123120307922</v>
       </c>
       <c r="J81">
-        <v>31.38</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -7504,13 +7504,13 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>1.246926323086226</v>
+        <v>1.239761873978336</v>
       </c>
       <c r="D82">
-        <v>1.95785117149353</v>
+        <v>1.940825581550598</v>
       </c>
       <c r="E82">
-        <v>42.29</v>
+        <v>42.13</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7519,10 +7519,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.008456701707839966</v>
+        <v>0.008375159955024719</v>
       </c>
       <c r="J82">
-        <v>52.62</v>
+        <v>52.78</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -7533,13 +7533,13 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>1.249569676360305</v>
+        <v>1.24378852617173</v>
       </c>
       <c r="D83">
-        <v>1.961667656898499</v>
+        <v>1.952026844024658</v>
       </c>
       <c r="E83">
-        <v>42.3</v>
+        <v>41.96</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7548,10 +7548,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.01359865012168884</v>
+        <v>0.01371400799751282</v>
       </c>
       <c r="J83">
-        <v>32.22</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -7562,13 +7562,13 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>1.25117337825347</v>
+        <v>1.241592776207697</v>
       </c>
       <c r="D84">
-        <v>1.966561436653137</v>
+        <v>1.946575880050659</v>
       </c>
       <c r="E84">
-        <v>42.11</v>
+        <v>42.18</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7577,10 +7577,10 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.008446067810058593</v>
+        <v>0.008389075398445129</v>
       </c>
       <c r="J84">
-        <v>52.82</v>
+        <v>52.68</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -7591,13 +7591,13 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>1.24695530635159</v>
+        <v>1.2402690596321</v>
       </c>
       <c r="D85">
-        <v>1.944767236709595</v>
+        <v>1.958371162414551</v>
       </c>
       <c r="E85">
-        <v>42.4</v>
+        <v>42.28</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7606,10 +7606,10 @@
         <v>42</v>
       </c>
       <c r="I85">
-        <v>0.01369925866127014</v>
+        <v>0.01389909691810608</v>
       </c>
       <c r="J85">
-        <v>31.78</v>
+        <v>30.88</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -7620,13 +7620,13 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>1.246178930308543</v>
+        <v>1.242728513114306</v>
       </c>
       <c r="D86">
-        <v>1.955610394477844</v>
+        <v>1.955109715461731</v>
       </c>
       <c r="E86">
-        <v>42.40000000000001</v>
+        <v>41.97</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7635,10 +7635,10 @@
         <v>42</v>
       </c>
       <c r="I86">
-        <v>0.008400464653968811</v>
+        <v>0.008346215295791626</v>
       </c>
       <c r="J86">
-        <v>52.94</v>
+        <v>53.06</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -7649,13 +7649,13 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>1.24871623110609</v>
+        <v>1.244972930068061</v>
       </c>
       <c r="D87">
-        <v>1.966497540473938</v>
+        <v>1.949308753013611</v>
       </c>
       <c r="E87">
-        <v>42.3</v>
+        <v>42.13</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -7664,10 +7664,10 @@
         <v>43</v>
       </c>
       <c r="I87">
-        <v>0.01368088531494141</v>
+        <v>0.0138959981918335</v>
       </c>
       <c r="J87">
-        <v>31.5</v>
+        <v>30.74</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -7678,13 +7678,13 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>1.248205116816929</v>
+        <v>1.244287974980413</v>
       </c>
       <c r="D88">
-        <v>1.945019841194153</v>
+        <v>1.953959703445435</v>
       </c>
       <c r="E88">
-        <v>42.25</v>
+        <v>42</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -7693,10 +7693,10 @@
         <v>43</v>
       </c>
       <c r="I88">
-        <v>0.008400873398780822</v>
+        <v>0.008425563049316406</v>
       </c>
       <c r="J88">
-        <v>53.08</v>
+        <v>52.76</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -7707,13 +7707,13 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>1.248011584184608</v>
+        <v>1.238464115022802</v>
       </c>
       <c r="D89">
-        <v>1.946328163146973</v>
+        <v>1.969765186309814</v>
       </c>
       <c r="E89">
-        <v>42.18</v>
+        <v>42.02</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -7722,10 +7722,10 @@
         <v>44</v>
       </c>
       <c r="I89">
-        <v>0.01365699372291565</v>
+        <v>0.01386112747192383</v>
       </c>
       <c r="J89">
-        <v>31.62</v>
+        <v>31.36</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -7736,13 +7736,13 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>1.252248672401013</v>
+        <v>1.241142718159423</v>
       </c>
       <c r="D90">
-        <v>1.951258540153503</v>
+        <v>1.956676959991455</v>
       </c>
       <c r="E90">
-        <v>42.25</v>
+        <v>42.14</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -7751,10 +7751,10 @@
         <v>44</v>
       </c>
       <c r="I90">
-        <v>0.00842722306251526</v>
+        <v>0.00842011284828186</v>
       </c>
       <c r="J90">
-        <v>52.68</v>
+        <v>52.74</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -7765,13 +7765,13 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>1.249472266151792</v>
+        <v>1.242009112624084</v>
       </c>
       <c r="D91">
-        <v>1.961459279060364</v>
+        <v>1.966636180877686</v>
       </c>
       <c r="E91">
-        <v>42.35</v>
+        <v>42.23999999999999</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -7780,10 +7780,10 @@
         <v>45</v>
       </c>
       <c r="I91">
-        <v>0.01364990139007568</v>
+        <v>0.01388850083351135</v>
       </c>
       <c r="J91">
-        <v>31.7</v>
+        <v>31.24</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -7794,13 +7794,13 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>1.245489086423601</v>
+        <v>1.24267088312681</v>
       </c>
       <c r="D92">
-        <v>1.959142565727234</v>
+        <v>1.966740369796753</v>
       </c>
       <c r="E92">
-        <v>42.23999999999999</v>
+        <v>42.03</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -7809,10 +7809,10 @@
         <v>45</v>
       </c>
       <c r="I92">
-        <v>0.008419997572898864</v>
+        <v>0.00839916844367981</v>
       </c>
       <c r="J92">
-        <v>53.08</v>
+        <v>53.12</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -7823,13 +7823,13 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>1.250960138379311</v>
+        <v>1.242031012262617</v>
       </c>
       <c r="D93">
-        <v>1.935755968093872</v>
+        <v>1.955783367156982</v>
       </c>
       <c r="E93">
-        <v>42.25</v>
+        <v>42.09</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -7838,10 +7838,10 @@
         <v>46</v>
       </c>
       <c r="I93">
-        <v>0.01368349900245667</v>
+        <v>0.01367734704017639</v>
       </c>
       <c r="J93">
-        <v>31.6</v>
+        <v>31.04</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -7852,13 +7852,13 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>1.244520815051332</v>
+        <v>1.241060094768498</v>
       </c>
       <c r="D94">
-        <v>1.945345282554626</v>
+        <v>1.946030616760254</v>
       </c>
       <c r="E94">
-        <v>42.24</v>
+        <v>41.83</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -7867,10 +7867,10 @@
         <v>46</v>
       </c>
       <c r="I94">
-        <v>0.008410864734649658</v>
+        <v>0.008329768228530883</v>
       </c>
       <c r="J94">
-        <v>53</v>
+        <v>53.06</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -7881,13 +7881,13 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>1.24828547928609</v>
+        <v>1.243151984247221</v>
       </c>
       <c r="D95">
-        <v>1.968459606170654</v>
+        <v>1.953476428985596</v>
       </c>
       <c r="E95">
-        <v>42.3</v>
+        <v>42.01</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -7896,10 +7896,10 @@
         <v>47</v>
       </c>
       <c r="I95">
-        <v>0.0136866201877594</v>
+        <v>0.01365183811187744</v>
       </c>
       <c r="J95">
-        <v>31.54</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -7910,13 +7910,13 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>1.246070812348606</v>
+        <v>1.243066400086799</v>
       </c>
       <c r="D96">
-        <v>1.946618914604187</v>
+        <v>1.955304741859436</v>
       </c>
       <c r="E96">
-        <v>42.41</v>
+        <v>41.84</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -7925,10 +7925,10 @@
         <v>47</v>
       </c>
       <c r="I96">
-        <v>0.008419741249084473</v>
+        <v>0.008391689109802246</v>
       </c>
       <c r="J96">
-        <v>52.88</v>
+        <v>52.96</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -7939,13 +7939,13 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>1.246912943262632</v>
+        <v>1.241696579115731</v>
       </c>
       <c r="D97">
-        <v>1.958428382873535</v>
+        <v>1.951419830322266</v>
       </c>
       <c r="E97">
-        <v>42.32</v>
+        <v>42.12</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -7954,10 +7954,10 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <v>0.01369210796356201</v>
+        <v>0.01364053506851196</v>
       </c>
       <c r="J97">
-        <v>31.8</v>
+        <v>31.14</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -7968,13 +7968,13 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>1.249525362131547</v>
+        <v>1.244219009568091</v>
       </c>
       <c r="D98">
-        <v>1.956791639328003</v>
+        <v>1.949265599250793</v>
       </c>
       <c r="E98">
-        <v>42.32</v>
+        <v>41.97</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -7983,10 +7983,10 @@
         <v>48</v>
       </c>
       <c r="I98">
-        <v>0.008421458387374878</v>
+        <v>0.008347886371612549</v>
       </c>
       <c r="J98">
-        <v>52.78</v>
+        <v>53.02</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -7997,13 +7997,13 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>1.2489367630206</v>
+        <v>1.239387900650907</v>
       </c>
       <c r="D99">
-        <v>1.964248418807983</v>
+        <v>1.952720642089844</v>
       </c>
       <c r="E99">
-        <v>42.12</v>
+        <v>41.82</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8012,10 +8012,10 @@
         <v>49</v>
       </c>
       <c r="I99">
-        <v>0.01378445973396301</v>
+        <v>0.01366273002624512</v>
       </c>
       <c r="J99">
-        <v>31.74</v>
+        <v>31.32</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -8026,13 +8026,13 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>1.247866315095603</v>
+        <v>1.240184251143008</v>
       </c>
       <c r="D100">
-        <v>1.952530860900879</v>
+        <v>1.954639673233032</v>
       </c>
       <c r="E100">
-        <v>42.18</v>
+        <v>42.22</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -8041,10 +8041,10 @@
         <v>49</v>
       </c>
       <c r="I100">
-        <v>0.008401756429672242</v>
+        <v>0.008389817404747009</v>
       </c>
       <c r="J100">
-        <v>53.06</v>
+        <v>52.92</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -8055,13 +8055,13 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>1.248935679189202</v>
+        <v>1.244042802019184</v>
       </c>
       <c r="D101">
-        <v>1.962197422981262</v>
+        <v>1.957608222961426</v>
       </c>
       <c r="E101">
-        <v>42.27</v>
+        <v>42.05</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -8070,10 +8070,10 @@
         <v>50</v>
       </c>
       <c r="I101">
-        <v>0.01371190147399902</v>
+        <v>0.01365906176567078</v>
       </c>
       <c r="J101">
-        <v>31.94</v>
+        <v>31.26</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -8084,13 +8084,13 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>1.249846466544534</v>
+        <v>1.239745106015887</v>
       </c>
       <c r="D102">
-        <v>1.960566759109497</v>
+        <v>1.947695374488831</v>
       </c>
       <c r="E102">
-        <v>42.34</v>
+        <v>42.07</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -8099,28 +8099,13 @@
         <v>50</v>
       </c>
       <c r="I102">
-        <v>0.008412585878372193</v>
+        <v>0.008346570730209351</v>
       </c>
       <c r="J102">
-        <v>52.9</v>
+        <v>52.88</v>
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103">
-        <v>2</v>
-      </c>
-      <c r="B103">
-        <v>101</v>
-      </c>
-      <c r="C103">
-        <v>1.25033421662389</v>
-      </c>
-      <c r="D103">
-        <v>1.949845433235168</v>
-      </c>
-      <c r="E103">
-        <v>42.31</v>
-      </c>
       <c r="G103">
         <v>1</v>
       </c>
@@ -8128,28 +8113,13 @@
         <v>51</v>
       </c>
       <c r="I103">
-        <v>0.01373699378967285</v>
+        <v>0.01370416450500488</v>
       </c>
       <c r="J103">
-        <v>31.56</v>
+        <v>31.42</v>
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104">
-        <v>2</v>
-      </c>
-      <c r="B104">
-        <v>102</v>
-      </c>
-      <c r="C104">
-        <v>1.248615323280801</v>
-      </c>
-      <c r="D104">
-        <v>1.935677886009216</v>
-      </c>
-      <c r="E104">
-        <v>42.19</v>
-      </c>
       <c r="G104">
         <v>2</v>
       </c>
@@ -8157,28 +8127,13 @@
         <v>51</v>
       </c>
       <c r="I104">
-        <v>0.008415279626846314</v>
+        <v>0.008335582065582275</v>
       </c>
       <c r="J104">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105">
-        <v>2</v>
-      </c>
-      <c r="B105">
-        <v>103</v>
-      </c>
-      <c r="C105">
-        <v>1.250364640943047</v>
-      </c>
-      <c r="D105">
-        <v>1.939984679222107</v>
-      </c>
-      <c r="E105">
-        <v>42.29</v>
-      </c>
       <c r="G105">
         <v>1</v>
       </c>
@@ -8186,28 +8141,13 @@
         <v>52</v>
       </c>
       <c r="I105">
-        <v>0.01369654631614685</v>
+        <v>0.01368313932418823</v>
       </c>
       <c r="J105">
-        <v>31.6</v>
+        <v>31.22</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106">
-        <v>2</v>
-      </c>
-      <c r="B106">
-        <v>104</v>
-      </c>
-      <c r="C106">
-        <v>1.246405688272852</v>
-      </c>
-      <c r="D106">
-        <v>1.95029878616333</v>
-      </c>
-      <c r="E106">
-        <v>42.08</v>
-      </c>
       <c r="G106">
         <v>2</v>
       </c>
@@ -8215,28 +8155,13 @@
         <v>52</v>
       </c>
       <c r="I106">
-        <v>0.008437146639823914</v>
+        <v>0.008361808013916016</v>
       </c>
       <c r="J106">
-        <v>52.82</v>
+        <v>52.58</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107">
-        <v>2</v>
-      </c>
-      <c r="B107">
-        <v>105</v>
-      </c>
-      <c r="C107">
-        <v>1.248715437999388</v>
-      </c>
-      <c r="D107">
-        <v>1.963575959205627</v>
-      </c>
-      <c r="E107">
-        <v>42.2</v>
-      </c>
       <c r="G107">
         <v>1</v>
       </c>
@@ -8244,28 +8169,13 @@
         <v>53</v>
       </c>
       <c r="I107">
-        <v>0.01373304023742676</v>
+        <v>0.01366350178718567</v>
       </c>
       <c r="J107">
-        <v>31.62</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108">
-        <v>2</v>
-      </c>
-      <c r="B108">
-        <v>106</v>
-      </c>
-      <c r="C108">
-        <v>1.250857575410077</v>
-      </c>
-      <c r="D108">
-        <v>1.942815899848938</v>
-      </c>
-      <c r="E108">
-        <v>42.27</v>
-      </c>
       <c r="G108">
         <v>2</v>
       </c>
@@ -8273,28 +8183,13 @@
         <v>53</v>
       </c>
       <c r="I108">
-        <v>0.008429462909698487</v>
+        <v>0.008356435823440552</v>
       </c>
       <c r="J108">
-        <v>52.66</v>
+        <v>52.64</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109">
-        <v>2</v>
-      </c>
-      <c r="B109">
-        <v>107</v>
-      </c>
-      <c r="C109">
-        <v>1.25063254638594</v>
-      </c>
-      <c r="D109">
-        <v>1.957805395126343</v>
-      </c>
-      <c r="E109">
-        <v>42.12</v>
-      </c>
       <c r="G109">
         <v>1</v>
       </c>
@@ -8302,28 +8197,13 @@
         <v>54</v>
       </c>
       <c r="I109">
-        <v>0.01379356050491333</v>
+        <v>0.01364780278205872</v>
       </c>
       <c r="J109">
-        <v>31.58</v>
+        <v>31.26</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110">
-        <v>2</v>
-      </c>
-      <c r="B110">
-        <v>108</v>
-      </c>
-      <c r="C110">
-        <v>1.251834652050823</v>
-      </c>
-      <c r="D110">
-        <v>1.963043689727783</v>
-      </c>
-      <c r="E110">
-        <v>42.16</v>
-      </c>
       <c r="G110">
         <v>2</v>
       </c>
@@ -8331,28 +8211,13 @@
         <v>54</v>
       </c>
       <c r="I110">
-        <v>0.00840965530872345</v>
+        <v>0.008362712812423706</v>
       </c>
       <c r="J110">
-        <v>52.82</v>
+        <v>52.62</v>
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111">
-        <v>2</v>
-      </c>
-      <c r="B111">
-        <v>109</v>
-      </c>
-      <c r="C111">
-        <v>1.249753998250377</v>
-      </c>
-      <c r="D111">
-        <v>1.955536365509033</v>
-      </c>
-      <c r="E111">
-        <v>42.25</v>
-      </c>
       <c r="G111">
         <v>1</v>
       </c>
@@ -8360,28 +8225,13 @@
         <v>55</v>
       </c>
       <c r="I111">
-        <v>0.01376869773864746</v>
+        <v>0.01373850235939026</v>
       </c>
       <c r="J111">
-        <v>31.76</v>
+        <v>31.16</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112">
-        <v>2</v>
-      </c>
-      <c r="B112">
-        <v>110</v>
-      </c>
-      <c r="C112">
-        <v>1.25106753135214</v>
-      </c>
-      <c r="D112">
-        <v>1.964814782142639</v>
-      </c>
-      <c r="E112">
-        <v>42.24</v>
-      </c>
       <c r="G112">
         <v>2</v>
       </c>
@@ -8389,28 +8239,13 @@
         <v>55</v>
       </c>
       <c r="I112">
-        <v>0.008424027109146118</v>
+        <v>0.008340596342086792</v>
       </c>
       <c r="J112">
-        <v>52.9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10">
-      <c r="A113">
-        <v>2</v>
-      </c>
-      <c r="B113">
-        <v>111</v>
-      </c>
-      <c r="C113">
-        <v>1.246514104661487</v>
-      </c>
-      <c r="D113">
-        <v>1.946889758110046</v>
-      </c>
-      <c r="E113">
-        <v>42.4</v>
-      </c>
+        <v>53.04</v>
+      </c>
+    </row>
+    <row r="113" spans="7:10">
       <c r="G113">
         <v>1</v>
       </c>
@@ -8418,28 +8253,13 @@
         <v>56</v>
       </c>
       <c r="I113">
-        <v>0.01370975914001465</v>
+        <v>0.01368586564064026</v>
       </c>
       <c r="J113">
-        <v>31.74</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114">
-        <v>2</v>
-      </c>
-      <c r="B114">
-        <v>112</v>
-      </c>
-      <c r="C114">
-        <v>1.247033480073319</v>
-      </c>
-      <c r="D114">
-        <v>1.949584126472473</v>
-      </c>
-      <c r="E114">
-        <v>42.14</v>
-      </c>
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="114" spans="7:10">
       <c r="G114">
         <v>2</v>
       </c>
@@ -8447,13 +8267,13 @@
         <v>56</v>
       </c>
       <c r="I114">
-        <v>0.008429002809524536</v>
+        <v>0.008355667328834533</v>
       </c>
       <c r="J114">
-        <v>52.82</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10">
+        <v>52.64</v>
+      </c>
+    </row>
+    <row r="115" spans="7:10">
       <c r="G115">
         <v>1</v>
       </c>
@@ -8461,13 +8281,13 @@
         <v>57</v>
       </c>
       <c r="I115">
-        <v>0.01378468246459961</v>
+        <v>0.01370886788368225</v>
       </c>
       <c r="J115">
-        <v>31.54</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10">
+        <v>30.86</v>
+      </c>
+    </row>
+    <row r="116" spans="7:10">
       <c r="G116">
         <v>2</v>
       </c>
@@ -8475,13 +8295,13 @@
         <v>57</v>
       </c>
       <c r="I116">
-        <v>0.008417762589454651</v>
+        <v>0.008319506764411927</v>
       </c>
       <c r="J116">
-        <v>52.94</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10">
+        <v>53.26</v>
+      </c>
+    </row>
+    <row r="117" spans="7:10">
       <c r="G117">
         <v>1</v>
       </c>
@@ -8489,13 +8309,13 @@
         <v>58</v>
       </c>
       <c r="I117">
-        <v>0.01370972452163696</v>
+        <v>0.01363752212524414</v>
       </c>
       <c r="J117">
-        <v>31.58</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10">
+        <v>31.12</v>
+      </c>
+    </row>
+    <row r="118" spans="7:10">
       <c r="G118">
         <v>2</v>
       </c>
@@ -8503,13 +8323,13 @@
         <v>58</v>
       </c>
       <c r="I118">
-        <v>0.008418529272079468</v>
+        <v>0.00834855284690857</v>
       </c>
       <c r="J118">
-        <v>52.7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10">
+        <v>53.12</v>
+      </c>
+    </row>
+    <row r="119" spans="7:10">
       <c r="G119">
         <v>1</v>
       </c>
@@ -8517,13 +8337,13 @@
         <v>59</v>
       </c>
       <c r="I119">
-        <v>0.01367633476257324</v>
+        <v>0.0136317898273468</v>
       </c>
       <c r="J119">
-        <v>31.82</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="120" spans="7:10">
       <c r="G120">
         <v>2</v>
       </c>
@@ -8531,13 +8351,13 @@
         <v>59</v>
       </c>
       <c r="I120">
-        <v>0.008410057353973389</v>
+        <v>0.00836740906238556</v>
       </c>
       <c r="J120">
-        <v>52.88</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10">
+        <v>52.92</v>
+      </c>
+    </row>
+    <row r="121" spans="7:10">
       <c r="G121">
         <v>1</v>
       </c>
@@ -8545,13 +8365,13 @@
         <v>60</v>
       </c>
       <c r="I121">
-        <v>0.01366723446846008</v>
+        <v>0.01365997495651245</v>
       </c>
       <c r="J121">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10">
+        <v>31.04</v>
+      </c>
+    </row>
+    <row r="122" spans="7:10">
       <c r="G122">
         <v>2</v>
       </c>
@@ -8559,13 +8379,13 @@
         <v>60</v>
       </c>
       <c r="I122">
-        <v>0.008421400570869446</v>
+        <v>0.008354605746269226</v>
       </c>
       <c r="J122">
-        <v>52.58</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+        <v>52.94</v>
+      </c>
+    </row>
+    <row r="123" spans="7:10">
       <c r="G123">
         <v>1</v>
       </c>
@@ -8573,13 +8393,13 @@
         <v>61</v>
       </c>
       <c r="I123">
-        <v>0.01370341424942017</v>
+        <v>0.01365274610519409</v>
       </c>
       <c r="J123">
-        <v>31.74</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10">
+        <v>31.34</v>
+      </c>
+    </row>
+    <row r="124" spans="7:10">
       <c r="G124">
         <v>2</v>
       </c>
@@ -8587,13 +8407,13 @@
         <v>61</v>
       </c>
       <c r="I124">
-        <v>0.00840387716293335</v>
+        <v>0.008340000200271607</v>
       </c>
       <c r="J124">
-        <v>52.8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10">
+        <v>53.08</v>
+      </c>
+    </row>
+    <row r="125" spans="7:10">
       <c r="G125">
         <v>1</v>
       </c>
@@ -8601,13 +8421,13 @@
         <v>62</v>
       </c>
       <c r="I125">
-        <v>0.01368132357597351</v>
+        <v>0.01360634942054749</v>
       </c>
       <c r="J125">
-        <v>32.04</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
+        <v>31.64</v>
+      </c>
+    </row>
+    <row r="126" spans="7:10">
       <c r="G126">
         <v>2</v>
       </c>
@@ -8615,13 +8435,13 @@
         <v>62</v>
       </c>
       <c r="I126">
-        <v>0.008419409656524659</v>
+        <v>0.008363692307472229</v>
       </c>
       <c r="J126">
-        <v>52.88</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
+        <v>52.78</v>
+      </c>
+    </row>
+    <row r="127" spans="7:10">
       <c r="G127">
         <v>1</v>
       </c>
@@ -8629,13 +8449,13 @@
         <v>63</v>
       </c>
       <c r="I127">
-        <v>0.01375024347305298</v>
+        <v>0.01361812124252319</v>
       </c>
       <c r="J127">
-        <v>31.48</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="128" spans="7:10">
       <c r="G128">
         <v>2</v>
       </c>
@@ -8643,10 +8463,10 @@
         <v>63</v>
       </c>
       <c r="I128">
-        <v>0.008403588819503784</v>
+        <v>0.008353193926811218</v>
       </c>
       <c r="J128">
-        <v>52.86</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="129" spans="7:10">
@@ -8657,10 +8477,10 @@
         <v>64</v>
       </c>
       <c r="I129">
-        <v>0.01371534242630005</v>
+        <v>0.0136630274772644</v>
       </c>
       <c r="J129">
-        <v>31.38</v>
+        <v>31.48</v>
       </c>
     </row>
     <row r="130" spans="7:10">
@@ -8671,10 +8491,10 @@
         <v>64</v>
       </c>
       <c r="I130">
-        <v>0.008422518301010132</v>
+        <v>0.008338920879364014</v>
       </c>
       <c r="J130">
-        <v>52.72</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="131" spans="7:10">
@@ -8685,10 +8505,10 @@
         <v>65</v>
       </c>
       <c r="I131">
-        <v>0.0136808988571167</v>
+        <v>0.013664537525177</v>
       </c>
       <c r="J131">
-        <v>31.78</v>
+        <v>31.24</v>
       </c>
     </row>
     <row r="132" spans="7:10">
@@ -8699,10 +8519,10 @@
         <v>65</v>
       </c>
       <c r="I132">
-        <v>0.008421830868721008</v>
+        <v>0.008345385789871216</v>
       </c>
       <c r="J132">
-        <v>52.9</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="133" spans="7:10">
@@ -8713,10 +8533,10 @@
         <v>66</v>
       </c>
       <c r="I133">
-        <v>0.01371636624336243</v>
+        <v>0.01374277439117432</v>
       </c>
       <c r="J133">
-        <v>31.62</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="134" spans="7:10">
@@ -8727,10 +8547,10 @@
         <v>66</v>
       </c>
       <c r="I134">
-        <v>0.008417993307113647</v>
+        <v>0.008317758941650391</v>
       </c>
       <c r="J134">
-        <v>52.64</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="135" spans="7:10">
@@ -8741,10 +8561,10 @@
         <v>67</v>
       </c>
       <c r="I135">
-        <v>0.01369963388442993</v>
+        <v>0.01371290988922119</v>
       </c>
       <c r="J135">
-        <v>31.78</v>
+        <v>30.84</v>
       </c>
     </row>
     <row r="136" spans="7:10">
@@ -8755,10 +8575,10 @@
         <v>67</v>
       </c>
       <c r="I136">
-        <v>0.008426985168457031</v>
+        <v>0.008348106122016906</v>
       </c>
       <c r="J136">
-        <v>52.86</v>
+        <v>53.16</v>
       </c>
     </row>
     <row r="137" spans="7:10">
@@ -8769,10 +8589,10 @@
         <v>68</v>
       </c>
       <c r="I137">
-        <v>0.01367815971374512</v>
+        <v>0.01370944900512695</v>
       </c>
       <c r="J137">
-        <v>31.74</v>
+        <v>30.82</v>
       </c>
     </row>
     <row r="138" spans="7:10">
@@ -8783,10 +8603,10 @@
         <v>68</v>
       </c>
       <c r="I138">
-        <v>0.008448458242416381</v>
+        <v>0.008329620409011841</v>
       </c>
       <c r="J138">
-        <v>52.84</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="139" spans="7:10">
@@ -8797,10 +8617,10 @@
         <v>69</v>
       </c>
       <c r="I139">
-        <v>0.01369006714820862</v>
+        <v>0.01367692179679871</v>
       </c>
       <c r="J139">
-        <v>31.76</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="140" spans="7:10">
@@ -8811,10 +8631,10 @@
         <v>69</v>
       </c>
       <c r="I140">
-        <v>0.0084227933883667</v>
+        <v>0.008328969097137451</v>
       </c>
       <c r="J140">
-        <v>52.76</v>
+        <v>53.16</v>
       </c>
     </row>
     <row r="141" spans="7:10">
@@ -8825,10 +8645,10 @@
         <v>70</v>
       </c>
       <c r="I141">
-        <v>0.01370539655685425</v>
+        <v>0.01368421678543091</v>
       </c>
       <c r="J141">
-        <v>31.68</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="142" spans="7:10">
@@ -8839,10 +8659,10 @@
         <v>70</v>
       </c>
       <c r="I142">
-        <v>0.008409802913665771</v>
+        <v>0.008341722440719604</v>
       </c>
       <c r="J142">
-        <v>52.66</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="143" spans="7:10">
@@ -8853,10 +8673,10 @@
         <v>71</v>
       </c>
       <c r="I143">
-        <v>0.01366520962715149</v>
+        <v>0.01369344139099121</v>
       </c>
       <c r="J143">
-        <v>31.62</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="144" spans="7:10">
@@ -8867,10 +8687,10 @@
         <v>71</v>
       </c>
       <c r="I144">
-        <v>0.008437892889976501</v>
+        <v>0.008351194095611572</v>
       </c>
       <c r="J144">
-        <v>52.72</v>
+        <v>52.78</v>
       </c>
     </row>
     <row r="145" spans="7:10">
@@ -8881,10 +8701,10 @@
         <v>72</v>
       </c>
       <c r="I145">
-        <v>0.01375169148445129</v>
+        <v>0.01368755674362183</v>
       </c>
       <c r="J145">
-        <v>31.48</v>
+        <v>31.06</v>
       </c>
     </row>
     <row r="146" spans="7:10">
@@ -8895,10 +8715,10 @@
         <v>72</v>
       </c>
       <c r="I146">
-        <v>0.008420693397521972</v>
+        <v>0.008347032141685485</v>
       </c>
       <c r="J146">
-        <v>52.94</v>
+        <v>53.12</v>
       </c>
     </row>
     <row r="147" spans="7:10">
@@ -8909,10 +8729,10 @@
         <v>73</v>
       </c>
       <c r="I147">
-        <v>0.01367541003227234</v>
+        <v>0.01369589490890503</v>
       </c>
       <c r="J147">
-        <v>31.66</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="148" spans="7:10">
@@ -8923,10 +8743,10 @@
         <v>73</v>
       </c>
       <c r="I148">
-        <v>0.008430585837364196</v>
+        <v>0.008347986769676208</v>
       </c>
       <c r="J148">
-        <v>52.66</v>
+        <v>52.84</v>
       </c>
     </row>
     <row r="149" spans="7:10">
@@ -8937,10 +8757,10 @@
         <v>74</v>
       </c>
       <c r="I149">
-        <v>0.0137307430267334</v>
+        <v>0.01367348728179932</v>
       </c>
       <c r="J149">
-        <v>31.6</v>
+        <v>31.12</v>
       </c>
     </row>
     <row r="150" spans="7:10">
@@ -8951,10 +8771,10 @@
         <v>74</v>
       </c>
       <c r="I150">
-        <v>0.008411691522598267</v>
+        <v>0.008339068365097046</v>
       </c>
       <c r="J150">
-        <v>52.7</v>
+        <v>52.98</v>
       </c>
     </row>
     <row r="151" spans="7:10">
@@ -8965,10 +8785,10 @@
         <v>75</v>
       </c>
       <c r="I151">
-        <v>0.01373280563354492</v>
+        <v>0.01368764867782593</v>
       </c>
       <c r="J151">
-        <v>31.76</v>
+        <v>31.16</v>
       </c>
     </row>
     <row r="152" spans="7:10">
@@ -8979,10 +8799,10 @@
         <v>75</v>
       </c>
       <c r="I152">
-        <v>0.008404033327102661</v>
+        <v>0.008346736001968384</v>
       </c>
       <c r="J152">
-        <v>52.78</v>
+        <v>52.86</v>
       </c>
     </row>
     <row r="153" spans="7:10">
@@ -8993,10 +8813,10 @@
         <v>76</v>
       </c>
       <c r="I153">
-        <v>0.01371930999755859</v>
+        <v>0.01365704083442688</v>
       </c>
       <c r="J153">
-        <v>31.64</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="154" spans="7:10">
@@ -9007,10 +8827,10 @@
         <v>76</v>
       </c>
       <c r="I154">
-        <v>0.008419745278358459</v>
+        <v>0.008381135177612305</v>
       </c>
       <c r="J154">
-        <v>52.86</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="155" spans="7:10">
@@ -9021,10 +8841,10 @@
         <v>77</v>
       </c>
       <c r="I155">
-        <v>0.01373126378059387</v>
+        <v>0.01371959199905396</v>
       </c>
       <c r="J155">
-        <v>31.4</v>
+        <v>31.06</v>
       </c>
     </row>
     <row r="156" spans="7:10">
@@ -9035,10 +8855,10 @@
         <v>77</v>
       </c>
       <c r="I156">
-        <v>0.008416209316253661</v>
+        <v>0.008339667892456055</v>
       </c>
       <c r="J156">
-        <v>52.88</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="157" spans="7:10">
@@ -9049,10 +8869,10 @@
         <v>78</v>
       </c>
       <c r="I157">
-        <v>0.01371325454711914</v>
+        <v>0.01371082186698914</v>
       </c>
       <c r="J157">
-        <v>31.82</v>
+        <v>31.12</v>
       </c>
     </row>
     <row r="158" spans="7:10">
@@ -9063,10 +8883,10 @@
         <v>78</v>
       </c>
       <c r="I158">
-        <v>0.00843208782672882</v>
+        <v>0.008343940281867981</v>
       </c>
       <c r="J158">
-        <v>52.76</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="159" spans="7:10">
@@ -9077,10 +8897,10 @@
         <v>79</v>
       </c>
       <c r="I159">
-        <v>0.01370451560020447</v>
+        <v>0.01369165306091309</v>
       </c>
       <c r="J159">
-        <v>31.58</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="160" spans="7:10">
@@ -9091,10 +8911,10 @@
         <v>79</v>
       </c>
       <c r="I160">
-        <v>0.008442467570304871</v>
+        <v>0.008336560702323914</v>
       </c>
       <c r="J160">
-        <v>52.9</v>
+        <v>52.88</v>
       </c>
     </row>
     <row r="161" spans="7:10">
@@ -9105,10 +8925,10 @@
         <v>80</v>
       </c>
       <c r="I161">
-        <v>0.01365453081130981</v>
+        <v>0.01365697660446167</v>
       </c>
       <c r="J161">
-        <v>31.8</v>
+        <v>31.28</v>
       </c>
     </row>
     <row r="162" spans="7:10">
@@ -9119,10 +8939,10 @@
         <v>80</v>
       </c>
       <c r="I162">
-        <v>0.008437976861000061</v>
+        <v>0.008345318961143494</v>
       </c>
       <c r="J162">
-        <v>52.78</v>
+        <v>52.98</v>
       </c>
     </row>
     <row r="163" spans="7:10">
@@ -9133,10 +8953,10 @@
         <v>81</v>
       </c>
       <c r="I163">
-        <v>0.0137079644203186</v>
+        <v>0.01369267382621765</v>
       </c>
       <c r="J163">
-        <v>31.8</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="164" spans="7:10">
@@ -9147,10 +8967,10 @@
         <v>81</v>
       </c>
       <c r="I164">
-        <v>0.008409636616706849</v>
+        <v>0.008360077548027039</v>
       </c>
       <c r="J164">
-        <v>52.8</v>
+        <v>53.14</v>
       </c>
     </row>
     <row r="165" spans="7:10">
@@ -9161,10 +8981,10 @@
         <v>82</v>
       </c>
       <c r="I165">
-        <v>0.01373265161514282</v>
+        <v>0.01364674410820007</v>
       </c>
       <c r="J165">
-        <v>31.52</v>
+        <v>31.22</v>
       </c>
     </row>
     <row r="166" spans="7:10">
@@ -9175,10 +8995,10 @@
         <v>82</v>
       </c>
       <c r="I166">
-        <v>0.008412243676185607</v>
+        <v>0.008359686160087585</v>
       </c>
       <c r="J166">
-        <v>52.7</v>
+        <v>53.14</v>
       </c>
     </row>
     <row r="167" spans="7:10">
@@ -9189,10 +9009,10 @@
         <v>83</v>
       </c>
       <c r="I167">
-        <v>0.01366509652137756</v>
+        <v>0.01372054114341736</v>
       </c>
       <c r="J167">
-        <v>31.88</v>
+        <v>31.12</v>
       </c>
     </row>
     <row r="168" spans="7:10">
@@ -9203,10 +9023,10 @@
         <v>83</v>
       </c>
       <c r="I168">
-        <v>0.008422229433059692</v>
+        <v>0.008324855232238769</v>
       </c>
       <c r="J168">
-        <v>52.92</v>
+        <v>53.44</v>
       </c>
     </row>
     <row r="169" spans="7:10">
@@ -9217,10 +9037,10 @@
         <v>84</v>
       </c>
       <c r="I169">
-        <v>0.01370868368148804</v>
+        <v>0.01368634538650513</v>
       </c>
       <c r="J169">
-        <v>31.78</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="170" spans="7:10">
@@ -9231,10 +9051,10 @@
         <v>84</v>
       </c>
       <c r="I170">
-        <v>0.008414103984832763</v>
+        <v>0.008334922766685486</v>
       </c>
       <c r="J170">
-        <v>53.02</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="171" spans="7:10">
@@ -9245,10 +9065,10 @@
         <v>85</v>
       </c>
       <c r="I171">
-        <v>0.01365531411170959</v>
+        <v>0.01368275561332703</v>
       </c>
       <c r="J171">
-        <v>31.84</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="172" spans="7:10">
@@ -9259,10 +9079,10 @@
         <v>85</v>
       </c>
       <c r="I172">
-        <v>0.008424096417427062</v>
+        <v>0.008344805145263671</v>
       </c>
       <c r="J172">
-        <v>52.76</v>
+        <v>53.08</v>
       </c>
     </row>
     <row r="173" spans="7:10">
@@ -9273,10 +9093,10 @@
         <v>86</v>
       </c>
       <c r="I173">
-        <v>0.01375543789863586</v>
+        <v>0.01370028195381165</v>
       </c>
       <c r="J173">
-        <v>31.74</v>
+        <v>31.16</v>
       </c>
     </row>
     <row r="174" spans="7:10">
@@ -9287,10 +9107,10 @@
         <v>86</v>
       </c>
       <c r="I174">
-        <v>0.008399785804748535</v>
+        <v>0.008370700359344483</v>
       </c>
       <c r="J174">
-        <v>52.76</v>
+        <v>52.84</v>
       </c>
     </row>
     <row r="175" spans="7:10">
@@ -9301,10 +9121,10 @@
         <v>87</v>
       </c>
       <c r="I175">
-        <v>0.01372893419265747</v>
+        <v>0.01366657786369324</v>
       </c>
       <c r="J175">
-        <v>31.8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="7:10">
@@ -9315,10 +9135,10 @@
         <v>87</v>
       </c>
       <c r="I176">
-        <v>0.008409190702438354</v>
+        <v>0.008356847763061524</v>
       </c>
       <c r="J176">
-        <v>52.56</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="177" spans="7:10">
@@ -9329,10 +9149,10 @@
         <v>88</v>
       </c>
       <c r="I177">
-        <v>0.01370519251823425</v>
+        <v>0.01369483814239502</v>
       </c>
       <c r="J177">
-        <v>31.74</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="178" spans="7:10">
@@ -9343,10 +9163,10 @@
         <v>88</v>
       </c>
       <c r="I178">
-        <v>0.00841806149482727</v>
+        <v>0.008335417151451112</v>
       </c>
       <c r="J178">
-        <v>52.76</v>
+        <v>53.08</v>
       </c>
     </row>
     <row r="179" spans="7:10">
@@ -9357,10 +9177,10 @@
         <v>89</v>
       </c>
       <c r="I179">
-        <v>0.01371811451911926</v>
+        <v>0.01373386192321777</v>
       </c>
       <c r="J179">
-        <v>31.84</v>
+        <v>31.32</v>
       </c>
     </row>
     <row r="180" spans="7:10">
@@ -9371,10 +9191,10 @@
         <v>89</v>
       </c>
       <c r="I180">
-        <v>0.008415954399108886</v>
+        <v>0.008331819105148316</v>
       </c>
       <c r="J180">
-        <v>52.86</v>
+        <v>53.16</v>
       </c>
     </row>
     <row r="181" spans="7:10">
@@ -9385,10 +9205,10 @@
         <v>90</v>
       </c>
       <c r="I181">
-        <v>0.01371578869819641</v>
+        <v>0.01365921230316162</v>
       </c>
       <c r="J181">
-        <v>31.72</v>
+        <v>31.14</v>
       </c>
     </row>
     <row r="182" spans="7:10">
@@ -9399,10 +9219,10 @@
         <v>90</v>
       </c>
       <c r="I182">
-        <v>0.008412280201911926</v>
+        <v>0.008344258570671082</v>
       </c>
       <c r="J182">
-        <v>52.76</v>
+        <v>52.92</v>
       </c>
     </row>
     <row r="183" spans="7:10">
@@ -9413,10 +9233,10 @@
         <v>91</v>
       </c>
       <c r="I183">
-        <v>0.01365121965408325</v>
+        <v>0.01371045560836792</v>
       </c>
       <c r="J183">
-        <v>31.76</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="184" spans="7:10">
@@ -9427,10 +9247,10 @@
         <v>91</v>
       </c>
       <c r="I184">
-        <v>0.008437377691268922</v>
+        <v>0.008330188941955566</v>
       </c>
       <c r="J184">
-        <v>52.74</v>
+        <v>53.22</v>
       </c>
     </row>
     <row r="185" spans="7:10">
@@ -9441,10 +9261,10 @@
         <v>92</v>
       </c>
       <c r="I185">
-        <v>0.01374585900306702</v>
+        <v>0.01365458731651306</v>
       </c>
       <c r="J185">
-        <v>31.64</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="186" spans="7:10">
@@ -9455,10 +9275,10 @@
         <v>92</v>
       </c>
       <c r="I186">
-        <v>0.008400783014297485</v>
+        <v>0.00837085087299347</v>
       </c>
       <c r="J186">
-        <v>52.84</v>
+        <v>52.58</v>
       </c>
     </row>
     <row r="187" spans="7:10">
@@ -9469,10 +9289,10 @@
         <v>93</v>
       </c>
       <c r="I187">
-        <v>0.01368099551200867</v>
+        <v>0.01365130820274353</v>
       </c>
       <c r="J187">
-        <v>31.7</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="188" spans="7:10">
@@ -9483,10 +9303,10 @@
         <v>93</v>
       </c>
       <c r="I188">
-        <v>0.008420343875885011</v>
+        <v>0.008358914780616761</v>
       </c>
       <c r="J188">
-        <v>52.9</v>
+        <v>52.82</v>
       </c>
     </row>
     <row r="189" spans="7:10">
@@ -9497,10 +9317,10 @@
         <v>94</v>
       </c>
       <c r="I189">
-        <v>0.01373400464057922</v>
+        <v>0.0136901828289032</v>
       </c>
       <c r="J189">
-        <v>31.9</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="190" spans="7:10">
@@ -9511,10 +9331,10 @@
         <v>94</v>
       </c>
       <c r="I190">
-        <v>0.008416770362854004</v>
+        <v>0.008362076973915101</v>
       </c>
       <c r="J190">
-        <v>52.92</v>
+        <v>52.72</v>
       </c>
     </row>
     <row r="191" spans="7:10">
@@ -9525,10 +9345,10 @@
         <v>95</v>
       </c>
       <c r="I191">
-        <v>0.01372508254051208</v>
+        <v>0.01368005237579346</v>
       </c>
       <c r="J191">
-        <v>31.82</v>
+        <v>31.14</v>
       </c>
     </row>
     <row r="192" spans="7:10">
@@ -9539,10 +9359,10 @@
         <v>95</v>
       </c>
       <c r="I192">
-        <v>0.00840621292591095</v>
+        <v>0.00832952582836151</v>
       </c>
       <c r="J192">
-        <v>52.82</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="193" spans="7:10">
@@ -9553,10 +9373,10 @@
         <v>96</v>
       </c>
       <c r="I193">
-        <v>0.01376649475097656</v>
+        <v>0.01368979477882385</v>
       </c>
       <c r="J193">
-        <v>31.8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194" spans="7:10">
@@ -9567,10 +9387,10 @@
         <v>96</v>
       </c>
       <c r="I194">
-        <v>0.00841964991092682</v>
+        <v>0.008358048939704895</v>
       </c>
       <c r="J194">
-        <v>52.84</v>
+        <v>52.94</v>
       </c>
     </row>
     <row r="195" spans="7:10">
@@ -9581,10 +9401,10 @@
         <v>97</v>
       </c>
       <c r="I195">
-        <v>0.01369121809005737</v>
+        <v>0.01372407894134521</v>
       </c>
       <c r="J195">
-        <v>31.64</v>
+        <v>30.88</v>
       </c>
     </row>
     <row r="196" spans="7:10">
@@ -9595,10 +9415,10 @@
         <v>97</v>
       </c>
       <c r="I196">
-        <v>0.008426706266403199</v>
+        <v>0.008354991459846497</v>
       </c>
       <c r="J196">
-        <v>52.6</v>
+        <v>52.76</v>
       </c>
     </row>
     <row r="197" spans="7:10">
@@ -9609,10 +9429,10 @@
         <v>98</v>
       </c>
       <c r="I197">
-        <v>0.01375038204193115</v>
+        <v>0.01371428933143616</v>
       </c>
       <c r="J197">
-        <v>31.62</v>
+        <v>31.24</v>
       </c>
     </row>
     <row r="198" spans="7:10">
@@ -9623,10 +9443,10 @@
         <v>98</v>
       </c>
       <c r="I198">
-        <v>0.008399426436424256</v>
+        <v>0.008336913514137269</v>
       </c>
       <c r="J198">
-        <v>52.74</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="199" spans="7:10">
@@ -9637,10 +9457,10 @@
         <v>99</v>
       </c>
       <c r="I199">
-        <v>0.01370327115058899</v>
+        <v>0.01367233290672302</v>
       </c>
       <c r="J199">
-        <v>31.58</v>
+        <v>31.04</v>
       </c>
     </row>
     <row r="200" spans="7:10">
@@ -9651,10 +9471,10 @@
         <v>99</v>
       </c>
       <c r="I200">
-        <v>0.008413616275787354</v>
+        <v>0.008344080424308778</v>
       </c>
       <c r="J200">
-        <v>52.96</v>
+        <v>53.06</v>
       </c>
     </row>
     <row r="201" spans="7:10">
@@ -9665,10 +9485,10 @@
         <v>100</v>
       </c>
       <c r="I201">
-        <v>0.01374084477424622</v>
+        <v>0.01365486464500427</v>
       </c>
       <c r="J201">
-        <v>31.74</v>
+        <v>31.26</v>
       </c>
     </row>
     <row r="202" spans="7:10">
@@ -9679,346 +9499,10 @@
         <v>100</v>
       </c>
       <c r="I202">
-        <v>0.008411014866828919</v>
+        <v>0.008350671291351319</v>
       </c>
       <c r="J202">
-        <v>52.94</v>
-      </c>
-    </row>
-    <row r="203" spans="7:10">
-      <c r="G203">
-        <v>1</v>
-      </c>
-      <c r="H203">
-        <v>101</v>
-      </c>
-      <c r="I203">
-        <v>0.01364424695968628</v>
-      </c>
-      <c r="J203">
-        <v>31.84</v>
-      </c>
-    </row>
-    <row r="204" spans="7:10">
-      <c r="G204">
-        <v>2</v>
-      </c>
-      <c r="H204">
-        <v>101</v>
-      </c>
-      <c r="I204">
-        <v>0.008437066006660462</v>
-      </c>
-      <c r="J204">
-        <v>52.78</v>
-      </c>
-    </row>
-    <row r="205" spans="7:10">
-      <c r="G205">
-        <v>1</v>
-      </c>
-      <c r="H205">
-        <v>102</v>
-      </c>
-      <c r="I205">
-        <v>0.01368245944976807</v>
-      </c>
-      <c r="J205">
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="206" spans="7:10">
-      <c r="G206">
-        <v>2</v>
-      </c>
-      <c r="H206">
-        <v>102</v>
-      </c>
-      <c r="I206">
-        <v>0.008418489623069764</v>
-      </c>
-      <c r="J206">
-        <v>52.78</v>
-      </c>
-    </row>
-    <row r="207" spans="7:10">
-      <c r="G207">
-        <v>1</v>
-      </c>
-      <c r="H207">
-        <v>103</v>
-      </c>
-      <c r="I207">
-        <v>0.01374210991859436</v>
-      </c>
-      <c r="J207">
-        <v>31.88</v>
-      </c>
-    </row>
-    <row r="208" spans="7:10">
-      <c r="G208">
-        <v>2</v>
-      </c>
-      <c r="H208">
-        <v>103</v>
-      </c>
-      <c r="I208">
-        <v>0.00840715548992157</v>
-      </c>
-      <c r="J208">
-        <v>52.7</v>
-      </c>
-    </row>
-    <row r="209" spans="7:10">
-      <c r="G209">
-        <v>1</v>
-      </c>
-      <c r="H209">
-        <v>104</v>
-      </c>
-      <c r="I209">
-        <v>0.01372368421554565</v>
-      </c>
-      <c r="J209">
-        <v>31.44</v>
-      </c>
-    </row>
-    <row r="210" spans="7:10">
-      <c r="G210">
-        <v>2</v>
-      </c>
-      <c r="H210">
-        <v>104</v>
-      </c>
-      <c r="I210">
-        <v>0.008410821795463562</v>
-      </c>
-      <c r="J210">
-        <v>52.72</v>
-      </c>
-    </row>
-    <row r="211" spans="7:10">
-      <c r="G211">
-        <v>1</v>
-      </c>
-      <c r="H211">
-        <v>105</v>
-      </c>
-      <c r="I211">
-        <v>0.01369160022735596</v>
-      </c>
-      <c r="J211">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="212" spans="7:10">
-      <c r="G212">
-        <v>2</v>
-      </c>
-      <c r="H212">
-        <v>105</v>
-      </c>
-      <c r="I212">
-        <v>0.008428595542907714</v>
-      </c>
-      <c r="J212">
-        <v>52.6</v>
-      </c>
-    </row>
-    <row r="213" spans="7:10">
-      <c r="G213">
-        <v>1</v>
-      </c>
-      <c r="H213">
-        <v>106</v>
-      </c>
-      <c r="I213">
-        <v>0.01370422296524048</v>
-      </c>
-      <c r="J213">
-        <v>31.66</v>
-      </c>
-    </row>
-    <row r="214" spans="7:10">
-      <c r="G214">
-        <v>2</v>
-      </c>
-      <c r="H214">
-        <v>106</v>
-      </c>
-      <c r="I214">
-        <v>0.008424039030075074</v>
-      </c>
-      <c r="J214">
         <v>52.88</v>
-      </c>
-    </row>
-    <row r="215" spans="7:10">
-      <c r="G215">
-        <v>1</v>
-      </c>
-      <c r="H215">
-        <v>107</v>
-      </c>
-      <c r="I215">
-        <v>0.01373888731002808</v>
-      </c>
-      <c r="J215">
-        <v>31.56</v>
-      </c>
-    </row>
-    <row r="216" spans="7:10">
-      <c r="G216">
-        <v>2</v>
-      </c>
-      <c r="H216">
-        <v>107</v>
-      </c>
-      <c r="I216">
-        <v>0.008421702480316162</v>
-      </c>
-      <c r="J216">
-        <v>52.68</v>
-      </c>
-    </row>
-    <row r="217" spans="7:10">
-      <c r="G217">
-        <v>1</v>
-      </c>
-      <c r="H217">
-        <v>108</v>
-      </c>
-      <c r="I217">
-        <v>0.01370734395980835</v>
-      </c>
-      <c r="J217">
-        <v>31.72</v>
-      </c>
-    </row>
-    <row r="218" spans="7:10">
-      <c r="G218">
-        <v>2</v>
-      </c>
-      <c r="H218">
-        <v>108</v>
-      </c>
-      <c r="I218">
-        <v>0.008422556924819946</v>
-      </c>
-      <c r="J218">
-        <v>52.6</v>
-      </c>
-    </row>
-    <row r="219" spans="7:10">
-      <c r="G219">
-        <v>1</v>
-      </c>
-      <c r="H219">
-        <v>109</v>
-      </c>
-      <c r="I219">
-        <v>0.01375305871963501</v>
-      </c>
-      <c r="J219">
-        <v>31.56</v>
-      </c>
-    </row>
-    <row r="220" spans="7:10">
-      <c r="G220">
-        <v>2</v>
-      </c>
-      <c r="H220">
-        <v>109</v>
-      </c>
-      <c r="I220">
-        <v>0.008402812147140504</v>
-      </c>
-      <c r="J220">
-        <v>52.94</v>
-      </c>
-    </row>
-    <row r="221" spans="7:10">
-      <c r="G221">
-        <v>1</v>
-      </c>
-      <c r="H221">
-        <v>110</v>
-      </c>
-      <c r="I221">
-        <v>0.01364708018302917</v>
-      </c>
-      <c r="J221">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="222" spans="7:10">
-      <c r="G222">
-        <v>2</v>
-      </c>
-      <c r="H222">
-        <v>110</v>
-      </c>
-      <c r="I222">
-        <v>0.008440051126480103</v>
-      </c>
-      <c r="J222">
-        <v>52.78</v>
-      </c>
-    </row>
-    <row r="223" spans="7:10">
-      <c r="G223">
-        <v>1</v>
-      </c>
-      <c r="H223">
-        <v>111</v>
-      </c>
-      <c r="I223">
-        <v>0.01371638097763062</v>
-      </c>
-      <c r="J223">
-        <v>31.82</v>
-      </c>
-    </row>
-    <row r="224" spans="7:10">
-      <c r="G224">
-        <v>2</v>
-      </c>
-      <c r="H224">
-        <v>111</v>
-      </c>
-      <c r="I224">
-        <v>0.008406667971611022</v>
-      </c>
-      <c r="J224">
-        <v>52.98</v>
-      </c>
-    </row>
-    <row r="225" spans="7:10">
-      <c r="G225">
-        <v>1</v>
-      </c>
-      <c r="H225">
-        <v>112</v>
-      </c>
-      <c r="I225">
-        <v>0.01371162309646607</v>
-      </c>
-      <c r="J225">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="226" spans="7:10">
-      <c r="G226">
-        <v>2</v>
-      </c>
-      <c r="H226">
-        <v>112</v>
-      </c>
-      <c r="I226">
-        <v>0.008429677104949952</v>
-      </c>
-      <c r="J226">
-        <v>52.58</v>
       </c>
     </row>
   </sheetData>
